--- a/backend/data/Data for 24-Aug-2023/Nifty_Data_31-Aug-2023.xlsx
+++ b/backend/data/Data for 24-Aug-2023/Nifty_Data_31-Aug-2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X37"/>
+  <dimension ref="A1:X67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,10 +561,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45162.54465277777</v>
+        <v>45162.64195601852</v>
       </c>
       <c r="B2" t="n">
-        <v>19350</v>
+        <v>19250</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -572,75 +572,75 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8246</v>
+        <v>3535</v>
       </c>
       <c r="E2" t="n">
-        <v>-565</v>
+        <v>897</v>
       </c>
       <c r="F2" t="n">
-        <v>-6.412438996708659</v>
+        <v>34.00303260045489</v>
       </c>
       <c r="G2" t="n">
-        <v>31771</v>
+        <v>10704</v>
       </c>
       <c r="H2" t="n">
-        <v>9.300000000000001</v>
+        <v>7.49</v>
       </c>
       <c r="I2" t="n">
-        <v>180.4</v>
+        <v>181.35</v>
       </c>
       <c r="J2" t="n">
-        <v>27.30000000000001</v>
+        <v>-45.80000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>17.83148269105161</v>
+        <v>-20.16288795949813</v>
       </c>
       <c r="L2" t="n">
-        <v>69750</v>
+        <v>48200</v>
       </c>
       <c r="M2" t="n">
-        <v>61050</v>
+        <v>34900</v>
       </c>
       <c r="N2" t="n">
-        <v>21833</v>
+        <v>30353</v>
       </c>
       <c r="O2" t="n">
-        <v>2966</v>
+        <v>16464</v>
       </c>
       <c r="P2" t="n">
-        <v>15.72057030794509</v>
+        <v>118.5398516811865</v>
       </c>
       <c r="Q2" t="n">
-        <v>149109</v>
+        <v>206360</v>
       </c>
       <c r="R2" t="n">
-        <v>9.880000000000001</v>
+        <v>10.51</v>
       </c>
       <c r="S2" t="n">
-        <v>52.8</v>
+        <v>52.35</v>
       </c>
       <c r="T2" t="n">
-        <v>-16.55</v>
+        <v>10.45</v>
       </c>
       <c r="U2" t="n">
-        <v>-23.86445565969719</v>
+        <v>24.94033412887829</v>
       </c>
       <c r="V2" t="n">
-        <v>145200</v>
+        <v>228150</v>
       </c>
       <c r="W2" t="n">
-        <v>111700</v>
+        <v>59000</v>
       </c>
       <c r="X2" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45162.54465277777</v>
+        <v>45162.64195601852</v>
       </c>
       <c r="B3" t="n">
-        <v>19400</v>
+        <v>19300</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -648,75 +648,75 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>56134</v>
+        <v>36175</v>
       </c>
       <c r="E3" t="n">
-        <v>1659</v>
+        <v>8254</v>
       </c>
       <c r="F3" t="n">
-        <v>3.045433685176687</v>
+        <v>29.56197843916765</v>
       </c>
       <c r="G3" t="n">
-        <v>195920</v>
+        <v>114355</v>
       </c>
       <c r="H3" t="n">
-        <v>9.210000000000001</v>
+        <v>7.81</v>
       </c>
       <c r="I3" t="n">
-        <v>145.55</v>
+        <v>148.25</v>
       </c>
       <c r="J3" t="n">
-        <v>24.20000000000002</v>
+        <v>-38.75</v>
       </c>
       <c r="K3" t="n">
-        <v>19.94231561598683</v>
+        <v>-20.72192513368984</v>
       </c>
       <c r="L3" t="n">
-        <v>161700</v>
+        <v>74500</v>
       </c>
       <c r="M3" t="n">
-        <v>296750</v>
+        <v>175600</v>
       </c>
       <c r="N3" t="n">
-        <v>85286</v>
+        <v>86477</v>
       </c>
       <c r="O3" t="n">
-        <v>8124</v>
+        <v>14125</v>
       </c>
       <c r="P3" t="n">
-        <v>10.5284984837096</v>
+        <v>19.52261167624945</v>
       </c>
       <c r="Q3" t="n">
-        <v>421770</v>
+        <v>546587</v>
       </c>
       <c r="R3" t="n">
-        <v>9.76</v>
+        <v>10.55</v>
       </c>
       <c r="S3" t="n">
-        <v>68.65000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="T3" t="n">
-        <v>-19.8</v>
+        <v>13.85000000000001</v>
       </c>
       <c r="U3" t="n">
-        <v>-22.3855285472018</v>
+        <v>25.38955087076079</v>
       </c>
       <c r="V3" t="n">
-        <v>1329950</v>
+        <v>357950</v>
       </c>
       <c r="W3" t="n">
-        <v>271700</v>
+        <v>162800</v>
       </c>
       <c r="X3" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45162.54465277777</v>
+        <v>45162.64195601852</v>
       </c>
       <c r="B4" t="n">
-        <v>19450</v>
+        <v>19350</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -724,75 +724,75 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>30434</v>
+        <v>13820</v>
       </c>
       <c r="E4" t="n">
-        <v>9431</v>
+        <v>5009</v>
       </c>
       <c r="F4" t="n">
-        <v>44.90310907965529</v>
+        <v>56.84939280444898</v>
       </c>
       <c r="G4" t="n">
-        <v>155107</v>
+        <v>75181</v>
       </c>
       <c r="H4" t="n">
-        <v>9.119999999999999</v>
+        <v>8.08</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1</v>
+        <v>118</v>
       </c>
       <c r="J4" t="n">
-        <v>20.5</v>
+        <v>-35.09999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>21.67019027484144</v>
+        <v>-22.92619203135206</v>
       </c>
       <c r="L4" t="n">
-        <v>142750</v>
+        <v>81150</v>
       </c>
       <c r="M4" t="n">
-        <v>259050</v>
+        <v>106700</v>
       </c>
       <c r="N4" t="n">
-        <v>29535</v>
+        <v>24413</v>
       </c>
       <c r="O4" t="n">
-        <v>13320</v>
+        <v>5546</v>
       </c>
       <c r="P4" t="n">
-        <v>82.14616096207216</v>
+        <v>29.39524036677797</v>
       </c>
       <c r="Q4" t="n">
-        <v>272493</v>
+        <v>274761</v>
       </c>
       <c r="R4" t="n">
-        <v>9.630000000000001</v>
+        <v>10.6</v>
       </c>
       <c r="S4" t="n">
-        <v>88</v>
+        <v>88.15000000000001</v>
       </c>
       <c r="T4" t="n">
-        <v>-23.7</v>
+        <v>18.80000000000001</v>
       </c>
       <c r="U4" t="n">
-        <v>-21.21754700089526</v>
+        <v>27.10886806056239</v>
       </c>
       <c r="V4" t="n">
-        <v>129250</v>
+        <v>174800</v>
       </c>
       <c r="W4" t="n">
-        <v>169500</v>
+        <v>79250</v>
       </c>
       <c r="X4" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45162.54465277777</v>
+        <v>45162.64195601852</v>
       </c>
       <c r="B5" t="n">
-        <v>19500</v>
+        <v>19400</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -800,75 +800,75 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>153979</v>
+        <v>105519</v>
       </c>
       <c r="E5" t="n">
-        <v>78363</v>
+        <v>51044</v>
       </c>
       <c r="F5" t="n">
-        <v>103.6328290308929</v>
+        <v>93.70169802661772</v>
       </c>
       <c r="G5" t="n">
-        <v>684834</v>
+        <v>531860</v>
       </c>
       <c r="H5" t="n">
-        <v>8.949999999999999</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>87.95</v>
+        <v>91</v>
       </c>
       <c r="J5" t="n">
-        <v>16.3</v>
+        <v>-30.34999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>22.74947662247034</v>
+        <v>-25.0103007828595</v>
       </c>
       <c r="L5" t="n">
-        <v>409750</v>
+        <v>247450</v>
       </c>
       <c r="M5" t="n">
-        <v>1059300</v>
+        <v>658500</v>
       </c>
       <c r="N5" t="n">
-        <v>111123</v>
+        <v>112752</v>
       </c>
       <c r="O5" t="n">
-        <v>58140</v>
+        <v>35590</v>
       </c>
       <c r="P5" t="n">
-        <v>109.7333106845592</v>
+        <v>46.12373966460175</v>
       </c>
       <c r="Q5" t="n">
-        <v>603006</v>
+        <v>848354</v>
       </c>
       <c r="R5" t="n">
-        <v>9.59</v>
+        <v>10.61</v>
       </c>
       <c r="S5" t="n">
-        <v>111.65</v>
+        <v>110.95</v>
       </c>
       <c r="T5" t="n">
-        <v>-27</v>
+        <v>22.5</v>
       </c>
       <c r="U5" t="n">
-        <v>-19.47349441038586</v>
+        <v>25.43810062182024</v>
       </c>
       <c r="V5" t="n">
-        <v>211850</v>
+        <v>352250</v>
       </c>
       <c r="W5" t="n">
-        <v>212450</v>
+        <v>147700</v>
       </c>
       <c r="X5" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45162.54465277777</v>
+        <v>45162.64195601852</v>
       </c>
       <c r="B6" t="n">
-        <v>19550</v>
+        <v>19450</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -876,75 +876,75 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>46708</v>
+        <v>57416</v>
       </c>
       <c r="E6" t="n">
-        <v>24467</v>
+        <v>36413</v>
       </c>
       <c r="F6" t="n">
-        <v>110.0085427813498</v>
+        <v>173.3704708851116</v>
       </c>
       <c r="G6" t="n">
-        <v>307621</v>
+        <v>379847</v>
       </c>
       <c r="H6" t="n">
-        <v>8.869999999999999</v>
+        <v>8.24</v>
       </c>
       <c r="I6" t="n">
-        <v>65.90000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="J6" t="n">
-        <v>13.2</v>
+        <v>-26.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>25.04743833017078</v>
+        <v>-27.58985200845666</v>
       </c>
       <c r="L6" t="n">
-        <v>211750</v>
+        <v>189650</v>
       </c>
       <c r="M6" t="n">
-        <v>388300</v>
+        <v>466050</v>
       </c>
       <c r="N6" t="n">
-        <v>15245</v>
+        <v>30276</v>
       </c>
       <c r="O6" t="n">
-        <v>10871</v>
+        <v>14061</v>
       </c>
       <c r="P6" t="n">
-        <v>248.5368084133516</v>
+        <v>86.71600370027753</v>
       </c>
       <c r="Q6" t="n">
-        <v>175450</v>
+        <v>438564</v>
       </c>
       <c r="R6" t="n">
-        <v>9.41</v>
+        <v>10.71</v>
       </c>
       <c r="S6" t="n">
-        <v>138.85</v>
+        <v>138.55</v>
       </c>
       <c r="T6" t="n">
-        <v>-30.15000000000001</v>
+        <v>26.85000000000001</v>
       </c>
       <c r="U6" t="n">
-        <v>-17.84023668639054</v>
+        <v>24.03760071620412</v>
       </c>
       <c r="V6" t="n">
-        <v>70900</v>
+        <v>101300</v>
       </c>
       <c r="W6" t="n">
-        <v>54200</v>
+        <v>90700</v>
       </c>
       <c r="X6" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45162.54465277777</v>
+        <v>45162.64195601852</v>
       </c>
       <c r="B7" t="n">
-        <v>19600</v>
+        <v>19500</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -952,75 +952,75 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>100972</v>
+        <v>232250</v>
       </c>
       <c r="E7" t="n">
-        <v>31138</v>
+        <v>156634</v>
       </c>
       <c r="F7" t="n">
-        <v>44.5885958129278</v>
+        <v>207.1439906898011</v>
       </c>
       <c r="G7" t="n">
-        <v>538431</v>
+        <v>1219921</v>
       </c>
       <c r="H7" t="n">
-        <v>8.82</v>
+        <v>8.26</v>
       </c>
       <c r="I7" t="n">
-        <v>47.85</v>
+        <v>49.7</v>
       </c>
       <c r="J7" t="n">
-        <v>10.7</v>
+        <v>-21.95</v>
       </c>
       <c r="K7" t="n">
-        <v>28.80215343203231</v>
+        <v>-30.63503140265178</v>
       </c>
       <c r="L7" t="n">
-        <v>286800</v>
+        <v>305850</v>
       </c>
       <c r="M7" t="n">
-        <v>748100</v>
+        <v>1351450</v>
       </c>
       <c r="N7" t="n">
-        <v>28782</v>
+        <v>115401</v>
       </c>
       <c r="O7" t="n">
-        <v>11535</v>
+        <v>62418</v>
       </c>
       <c r="P7" t="n">
-        <v>66.88119672986606</v>
+        <v>117.8075986637223</v>
       </c>
       <c r="Q7" t="n">
-        <v>212225</v>
+        <v>842064</v>
       </c>
       <c r="R7" t="n">
-        <v>9.44</v>
+        <v>11.1</v>
       </c>
       <c r="S7" t="n">
-        <v>170.7</v>
+        <v>170.2</v>
       </c>
       <c r="T7" t="n">
-        <v>-34.55000000000001</v>
+        <v>31.54999999999998</v>
       </c>
       <c r="U7" t="n">
-        <v>-16.83313032886724</v>
+        <v>22.75513883880273</v>
       </c>
       <c r="V7" t="n">
-        <v>107400</v>
+        <v>181800</v>
       </c>
       <c r="W7" t="n">
-        <v>77950</v>
+        <v>99100</v>
       </c>
       <c r="X7" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45162.54395833334</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B8" t="n">
-        <v>19350</v>
+        <v>19250</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1028,75 +1028,75 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8246</v>
+        <v>3535</v>
       </c>
       <c r="E8" t="n">
-        <v>-565</v>
+        <v>897</v>
       </c>
       <c r="F8" t="n">
-        <v>-6.412438996708659</v>
+        <v>34.00303260045489</v>
       </c>
       <c r="G8" t="n">
-        <v>31714</v>
+        <v>10588</v>
       </c>
       <c r="H8" t="n">
-        <v>9.300000000000001</v>
+        <v>7.57</v>
       </c>
       <c r="I8" t="n">
-        <v>178</v>
+        <v>184.2</v>
       </c>
       <c r="J8" t="n">
-        <v>24.90000000000001</v>
+        <v>-42.95000000000002</v>
       </c>
       <c r="K8" t="n">
-        <v>16.263879817113</v>
+        <v>-18.90821043363417</v>
       </c>
       <c r="L8" t="n">
-        <v>69900</v>
+        <v>46650</v>
       </c>
       <c r="M8" t="n">
-        <v>56350</v>
+        <v>33300</v>
       </c>
       <c r="N8" t="n">
-        <v>21833</v>
+        <v>30353</v>
       </c>
       <c r="O8" t="n">
-        <v>2966</v>
+        <v>16464</v>
       </c>
       <c r="P8" t="n">
-        <v>15.72057030794509</v>
+        <v>118.5398516811865</v>
       </c>
       <c r="Q8" t="n">
-        <v>148614</v>
+        <v>203375</v>
       </c>
       <c r="R8" t="n">
-        <v>9.880000000000001</v>
+        <v>10.59</v>
       </c>
       <c r="S8" t="n">
-        <v>54.1</v>
+        <v>48.5</v>
       </c>
       <c r="T8" t="n">
-        <v>-15.24999999999999</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="U8" t="n">
-        <v>-21.98990627253063</v>
+        <v>15.75178997613366</v>
       </c>
       <c r="V8" t="n">
-        <v>138800</v>
+        <v>225750</v>
       </c>
       <c r="W8" t="n">
-        <v>105150</v>
+        <v>72900</v>
       </c>
       <c r="X8" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45162.54395833334</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B9" t="n">
-        <v>19400</v>
+        <v>19300</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1104,75 +1104,75 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>56134</v>
+        <v>36175</v>
       </c>
       <c r="E9" t="n">
-        <v>1659</v>
+        <v>8254</v>
       </c>
       <c r="F9" t="n">
-        <v>3.045433685176687</v>
+        <v>29.56197843916765</v>
       </c>
       <c r="G9" t="n">
-        <v>193820</v>
+        <v>112850</v>
       </c>
       <c r="H9" t="n">
-        <v>9.210000000000001</v>
+        <v>7.86</v>
       </c>
       <c r="I9" t="n">
-        <v>144.45</v>
+        <v>149.95</v>
       </c>
       <c r="J9" t="n">
-        <v>23.09999999999999</v>
+        <v>-37.05000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>19.03584672435105</v>
+        <v>-19.81283422459893</v>
       </c>
       <c r="L9" t="n">
-        <v>162300</v>
+        <v>75100</v>
       </c>
       <c r="M9" t="n">
-        <v>304600</v>
+        <v>171950</v>
       </c>
       <c r="N9" t="n">
-        <v>85286</v>
+        <v>86477</v>
       </c>
       <c r="O9" t="n">
-        <v>8124</v>
+        <v>14125</v>
       </c>
       <c r="P9" t="n">
-        <v>10.5284984837096</v>
+        <v>19.52261167624945</v>
       </c>
       <c r="Q9" t="n">
-        <v>419983</v>
+        <v>541868</v>
       </c>
       <c r="R9" t="n">
-        <v>9.76</v>
+        <v>10.58</v>
       </c>
       <c r="S9" t="n">
-        <v>70.2</v>
+        <v>65.05</v>
       </c>
       <c r="T9" t="n">
-        <v>-18.25</v>
+        <v>10.5</v>
       </c>
       <c r="U9" t="n">
-        <v>-20.63312605992086</v>
+        <v>19.24839596700275</v>
       </c>
       <c r="V9" t="n">
-        <v>1325200</v>
+        <v>364800</v>
       </c>
       <c r="W9" t="n">
-        <v>274450</v>
+        <v>160250</v>
       </c>
       <c r="X9" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45162.54395833334</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B10" t="n">
-        <v>19450</v>
+        <v>19350</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1180,75 +1180,75 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>30434</v>
+        <v>13820</v>
       </c>
       <c r="E10" t="n">
-        <v>9431</v>
+        <v>5009</v>
       </c>
       <c r="F10" t="n">
-        <v>44.90310907965529</v>
+        <v>56.84939280444898</v>
       </c>
       <c r="G10" t="n">
-        <v>153964</v>
+        <v>73927</v>
       </c>
       <c r="H10" t="n">
-        <v>9.119999999999999</v>
+        <v>8.15</v>
       </c>
       <c r="I10" t="n">
-        <v>113.65</v>
+        <v>119.85</v>
       </c>
       <c r="J10" t="n">
-        <v>19.05000000000001</v>
+        <v>-33.25</v>
       </c>
       <c r="K10" t="n">
-        <v>20.13742071881608</v>
+        <v>-21.71783148269105</v>
       </c>
       <c r="L10" t="n">
-        <v>138650</v>
+        <v>80550</v>
       </c>
       <c r="M10" t="n">
-        <v>261750</v>
+        <v>105050</v>
       </c>
       <c r="N10" t="n">
-        <v>29535</v>
+        <v>24413</v>
       </c>
       <c r="O10" t="n">
-        <v>13320</v>
+        <v>5546</v>
       </c>
       <c r="P10" t="n">
-        <v>82.14616096207216</v>
+        <v>29.39524036677797</v>
       </c>
       <c r="Q10" t="n">
-        <v>271751</v>
+        <v>270924</v>
       </c>
       <c r="R10" t="n">
-        <v>9.630000000000001</v>
+        <v>10.61</v>
       </c>
       <c r="S10" t="n">
-        <v>88.90000000000001</v>
+        <v>83</v>
       </c>
       <c r="T10" t="n">
-        <v>-22.8</v>
+        <v>13.65000000000001</v>
       </c>
       <c r="U10" t="n">
-        <v>-20.41181736794987</v>
+        <v>19.68276856524875</v>
       </c>
       <c r="V10" t="n">
-        <v>124100</v>
+        <v>170150</v>
       </c>
       <c r="W10" t="n">
-        <v>169250</v>
+        <v>85350</v>
       </c>
       <c r="X10" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45162.54395833334</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B11" t="n">
-        <v>19500</v>
+        <v>19400</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1256,75 +1256,75 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>153979</v>
+        <v>105519</v>
       </c>
       <c r="E11" t="n">
-        <v>78363</v>
+        <v>51044</v>
       </c>
       <c r="F11" t="n">
-        <v>103.6328290308929</v>
+        <v>93.70169802661772</v>
       </c>
       <c r="G11" t="n">
-        <v>680215</v>
+        <v>526187</v>
       </c>
       <c r="H11" t="n">
-        <v>8.949999999999999</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>87.25</v>
+        <v>91.95</v>
       </c>
       <c r="J11" t="n">
-        <v>15.59999999999999</v>
+        <v>-29.39999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>21.77250523377528</v>
+        <v>-24.2274412855377</v>
       </c>
       <c r="L11" t="n">
-        <v>395700</v>
+        <v>240300</v>
       </c>
       <c r="M11" t="n">
-        <v>1059550</v>
+        <v>661550</v>
       </c>
       <c r="N11" t="n">
-        <v>111123</v>
+        <v>112752</v>
       </c>
       <c r="O11" t="n">
-        <v>58140</v>
+        <v>35590</v>
       </c>
       <c r="P11" t="n">
-        <v>109.7333106845592</v>
+        <v>46.12373966460175</v>
       </c>
       <c r="Q11" t="n">
-        <v>600806</v>
+        <v>841518</v>
       </c>
       <c r="R11" t="n">
-        <v>9.59</v>
+        <v>10.63</v>
       </c>
       <c r="S11" t="n">
-        <v>112.8</v>
+        <v>107.1</v>
       </c>
       <c r="T11" t="n">
-        <v>-25.85000000000001</v>
+        <v>18.64999999999999</v>
       </c>
       <c r="U11" t="n">
-        <v>-18.64406779661018</v>
+        <v>21.08535895986432</v>
       </c>
       <c r="V11" t="n">
-        <v>206700</v>
+        <v>350750</v>
       </c>
       <c r="W11" t="n">
-        <v>207050</v>
+        <v>154950</v>
       </c>
       <c r="X11" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45162.54395833334</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B12" t="n">
-        <v>19550</v>
+        <v>19450</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1332,75 +1332,75 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>46708</v>
+        <v>57416</v>
       </c>
       <c r="E12" t="n">
-        <v>24467</v>
+        <v>36413</v>
       </c>
       <c r="F12" t="n">
-        <v>110.0085427813498</v>
+        <v>173.3704708851116</v>
       </c>
       <c r="G12" t="n">
-        <v>306755</v>
+        <v>377171</v>
       </c>
       <c r="H12" t="n">
-        <v>8.869999999999999</v>
+        <v>8.31</v>
       </c>
       <c r="I12" t="n">
-        <v>65.5</v>
+        <v>69.55</v>
       </c>
       <c r="J12" t="n">
-        <v>12.8</v>
+        <v>-25.05</v>
       </c>
       <c r="K12" t="n">
-        <v>24.28842504743832</v>
+        <v>-26.47991543340381</v>
       </c>
       <c r="L12" t="n">
-        <v>217500</v>
+        <v>185500</v>
       </c>
       <c r="M12" t="n">
-        <v>389750</v>
+        <v>466150</v>
       </c>
       <c r="N12" t="n">
-        <v>15245</v>
+        <v>30276</v>
       </c>
       <c r="O12" t="n">
-        <v>10871</v>
+        <v>14061</v>
       </c>
       <c r="P12" t="n">
-        <v>248.5368084133516</v>
+        <v>86.71600370027753</v>
       </c>
       <c r="Q12" t="n">
-        <v>175264</v>
+        <v>437327</v>
       </c>
       <c r="R12" t="n">
-        <v>9.41</v>
+        <v>10.75</v>
       </c>
       <c r="S12" t="n">
-        <v>139.75</v>
+        <v>134.7</v>
       </c>
       <c r="T12" t="n">
-        <v>-29.25</v>
+        <v>22.99999999999999</v>
       </c>
       <c r="U12" t="n">
-        <v>-17.30769230769231</v>
+        <v>20.59086839749327</v>
       </c>
       <c r="V12" t="n">
-        <v>71300</v>
+        <v>102050</v>
       </c>
       <c r="W12" t="n">
-        <v>55100</v>
+        <v>89750</v>
       </c>
       <c r="X12" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45162.54395833334</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B13" t="n">
-        <v>19600</v>
+        <v>19500</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1408,75 +1408,75 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>100972</v>
+        <v>232250</v>
       </c>
       <c r="E13" t="n">
-        <v>31138</v>
+        <v>156634</v>
       </c>
       <c r="F13" t="n">
-        <v>44.5885958129278</v>
+        <v>207.1439906898011</v>
       </c>
       <c r="G13" t="n">
-        <v>536112</v>
+        <v>1211992</v>
       </c>
       <c r="H13" t="n">
-        <v>8.82</v>
+        <v>8.31</v>
       </c>
       <c r="I13" t="n">
-        <v>46.95</v>
+        <v>50.4</v>
       </c>
       <c r="J13" t="n">
-        <v>9.800000000000004</v>
+        <v>-21.25000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>26.37954239569315</v>
+        <v>-29.65806001395674</v>
       </c>
       <c r="L13" t="n">
-        <v>278200</v>
+        <v>339400</v>
       </c>
       <c r="M13" t="n">
-        <v>738750</v>
+        <v>1378450</v>
       </c>
       <c r="N13" t="n">
-        <v>28782</v>
+        <v>115401</v>
       </c>
       <c r="O13" t="n">
-        <v>11535</v>
+        <v>62418</v>
       </c>
       <c r="P13" t="n">
-        <v>66.88119672986606</v>
+        <v>117.8075986637223</v>
       </c>
       <c r="Q13" t="n">
-        <v>211655</v>
+        <v>838386</v>
       </c>
       <c r="R13" t="n">
-        <v>9.44</v>
+        <v>10.99</v>
       </c>
       <c r="S13" t="n">
-        <v>172</v>
+        <v>165.1</v>
       </c>
       <c r="T13" t="n">
-        <v>-33.25</v>
+        <v>26.44999999999999</v>
       </c>
       <c r="U13" t="n">
-        <v>-16.19975639464068</v>
+        <v>19.07681211684096</v>
       </c>
       <c r="V13" t="n">
-        <v>102800</v>
+        <v>164350</v>
       </c>
       <c r="W13" t="n">
-        <v>83900</v>
+        <v>98300</v>
       </c>
       <c r="X13" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45162.54326388889</v>
+        <v>45162.64056712963</v>
       </c>
       <c r="B14" t="n">
-        <v>19300</v>
+        <v>19250</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1484,75 +1484,75 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>25857</v>
+        <v>3535</v>
       </c>
       <c r="E14" t="n">
-        <v>-2064</v>
+        <v>897</v>
       </c>
       <c r="F14" t="n">
-        <v>-7.392285376598259</v>
+        <v>34.00303260045489</v>
       </c>
       <c r="G14" t="n">
-        <v>53017</v>
+        <v>10440</v>
       </c>
       <c r="H14" t="n">
-        <v>9.44</v>
+        <v>6.41</v>
       </c>
       <c r="I14" t="n">
-        <v>212.9</v>
+        <v>184.8</v>
       </c>
       <c r="J14" t="n">
-        <v>25.90000000000001</v>
+        <v>-42.34999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>13.85026737967915</v>
+        <v>-18.64406779661017</v>
       </c>
       <c r="L14" t="n">
-        <v>73500</v>
+        <v>49100</v>
       </c>
       <c r="M14" t="n">
-        <v>94900</v>
+        <v>31800</v>
       </c>
       <c r="N14" t="n">
-        <v>78743</v>
+        <v>30353</v>
       </c>
       <c r="O14" t="n">
-        <v>6391</v>
+        <v>16464</v>
       </c>
       <c r="P14" t="n">
-        <v>8.833204334365325</v>
+        <v>118.5398516811865</v>
       </c>
       <c r="Q14" t="n">
-        <v>314284</v>
+        <v>201833</v>
       </c>
       <c r="R14" t="n">
-        <v>10.07</v>
+        <v>10.46</v>
       </c>
       <c r="S14" t="n">
-        <v>42</v>
+        <v>49.25</v>
       </c>
       <c r="T14" t="n">
-        <v>-12.55</v>
+        <v>7.350000000000001</v>
       </c>
       <c r="U14" t="n">
-        <v>-23.006416131989</v>
+        <v>17.54176610978521</v>
       </c>
       <c r="V14" t="n">
-        <v>324900</v>
+        <v>222850</v>
       </c>
       <c r="W14" t="n">
-        <v>215800</v>
+        <v>70400</v>
       </c>
       <c r="X14" t="n">
-        <v>19448.65</v>
+        <v>19370.45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45162.54326388889</v>
+        <v>45162.64056712963</v>
       </c>
       <c r="B15" t="n">
-        <v>19350</v>
+        <v>19300</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1560,75 +1560,75 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>7671</v>
+        <v>36175</v>
       </c>
       <c r="E15" t="n">
-        <v>-1140</v>
+        <v>8254</v>
       </c>
       <c r="F15" t="n">
-        <v>-12.93837248893429</v>
+        <v>29.56197843916765</v>
       </c>
       <c r="G15" t="n">
-        <v>31461</v>
+        <v>111138</v>
       </c>
       <c r="H15" t="n">
-        <v>9.35</v>
+        <v>7.05</v>
       </c>
       <c r="I15" t="n">
-        <v>178.45</v>
+        <v>150.4</v>
       </c>
       <c r="J15" t="n">
-        <v>25.34999999999999</v>
+        <v>-36.59999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>16.55780535597648</v>
+        <v>-19.57219251336898</v>
       </c>
       <c r="L15" t="n">
-        <v>66250</v>
+        <v>88200</v>
       </c>
       <c r="M15" t="n">
-        <v>63900</v>
+        <v>167900</v>
       </c>
       <c r="N15" t="n">
-        <v>21757</v>
+        <v>86477</v>
       </c>
       <c r="O15" t="n">
-        <v>2890</v>
+        <v>14125</v>
       </c>
       <c r="P15" t="n">
-        <v>15.31775056977792</v>
+        <v>19.52261167624945</v>
       </c>
       <c r="Q15" t="n">
-        <v>148145</v>
+        <v>534683</v>
       </c>
       <c r="R15" t="n">
-        <v>9.880000000000001</v>
+        <v>10.46</v>
       </c>
       <c r="S15" t="n">
-        <v>54.3</v>
+        <v>65</v>
       </c>
       <c r="T15" t="n">
-        <v>-15.05</v>
+        <v>10.45</v>
       </c>
       <c r="U15" t="n">
-        <v>-21.7015140591204</v>
+        <v>19.15673693858846</v>
       </c>
       <c r="V15" t="n">
-        <v>137900</v>
+        <v>327000</v>
       </c>
       <c r="W15" t="n">
-        <v>104150</v>
+        <v>171900</v>
       </c>
       <c r="X15" t="n">
-        <v>19448.65</v>
+        <v>19370.45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45162.54326388889</v>
+        <v>45162.64056712963</v>
       </c>
       <c r="B16" t="n">
-        <v>19400</v>
+        <v>19350</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1636,75 +1636,75 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>55257</v>
+        <v>13820</v>
       </c>
       <c r="E16" t="n">
-        <v>782</v>
+        <v>5009</v>
       </c>
       <c r="F16" t="n">
-        <v>1.435520881138137</v>
+        <v>56.84939280444898</v>
       </c>
       <c r="G16" t="n">
-        <v>192363</v>
+        <v>71791</v>
       </c>
       <c r="H16" t="n">
-        <v>9.24</v>
+        <v>7.45</v>
       </c>
       <c r="I16" t="n">
-        <v>141.65</v>
+        <v>120.35</v>
       </c>
       <c r="J16" t="n">
-        <v>20.30000000000001</v>
+        <v>-32.75</v>
       </c>
       <c r="K16" t="n">
-        <v>16.72847136382366</v>
+        <v>-21.39124755062051</v>
       </c>
       <c r="L16" t="n">
-        <v>156350</v>
+        <v>85050</v>
       </c>
       <c r="M16" t="n">
-        <v>310550</v>
+        <v>105250</v>
       </c>
       <c r="N16" t="n">
-        <v>84968</v>
+        <v>24413</v>
       </c>
       <c r="O16" t="n">
-        <v>7806</v>
+        <v>5546</v>
       </c>
       <c r="P16" t="n">
-        <v>10.11637852829113</v>
+        <v>29.39524036677797</v>
       </c>
       <c r="Q16" t="n">
-        <v>417239</v>
+        <v>268859</v>
       </c>
       <c r="R16" t="n">
-        <v>9.779999999999999</v>
+        <v>10.42</v>
       </c>
       <c r="S16" t="n">
-        <v>69.75</v>
+        <v>84.2</v>
       </c>
       <c r="T16" t="n">
-        <v>-18.7</v>
+        <v>14.85000000000001</v>
       </c>
       <c r="U16" t="n">
-        <v>-21.14188807235727</v>
+        <v>21.41312184571018</v>
       </c>
       <c r="V16" t="n">
-        <v>1338650</v>
+        <v>167850</v>
       </c>
       <c r="W16" t="n">
-        <v>261800</v>
+        <v>81300</v>
       </c>
       <c r="X16" t="n">
-        <v>19448.65</v>
+        <v>19370.45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45162.54326388889</v>
+        <v>45162.64056712963</v>
       </c>
       <c r="B17" t="n">
-        <v>19450</v>
+        <v>19400</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1712,75 +1712,75 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>29188</v>
+        <v>105519</v>
       </c>
       <c r="E17" t="n">
-        <v>8185</v>
+        <v>51044</v>
       </c>
       <c r="F17" t="n">
-        <v>38.97062324429843</v>
+        <v>93.70169802661772</v>
       </c>
       <c r="G17" t="n">
-        <v>152185</v>
+        <v>517962</v>
       </c>
       <c r="H17" t="n">
-        <v>9.220000000000001</v>
+        <v>7.61</v>
       </c>
       <c r="I17" t="n">
-        <v>114.15</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="J17" t="n">
-        <v>19.55000000000001</v>
+        <v>-28.44999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>20.66596194503173</v>
+        <v>-23.4445817882159</v>
       </c>
       <c r="L17" t="n">
-        <v>124800</v>
+        <v>259950</v>
       </c>
       <c r="M17" t="n">
-        <v>259000</v>
+        <v>648300</v>
       </c>
       <c r="N17" t="n">
-        <v>29170</v>
+        <v>112752</v>
       </c>
       <c r="O17" t="n">
-        <v>12955</v>
+        <v>35590</v>
       </c>
       <c r="P17" t="n">
-        <v>79.89515880357693</v>
+        <v>46.12373966460175</v>
       </c>
       <c r="Q17" t="n">
-        <v>270081</v>
+        <v>834297</v>
       </c>
       <c r="R17" t="n">
-        <v>9.640000000000001</v>
+        <v>10.45</v>
       </c>
       <c r="S17" t="n">
-        <v>88.95</v>
+        <v>107.1</v>
       </c>
       <c r="T17" t="n">
-        <v>-22.75</v>
+        <v>18.64999999999999</v>
       </c>
       <c r="U17" t="n">
-        <v>-20.36705461056401</v>
+        <v>21.08535895986432</v>
       </c>
       <c r="V17" t="n">
-        <v>132550</v>
+        <v>351850</v>
       </c>
       <c r="W17" t="n">
-        <v>171250</v>
+        <v>167500</v>
       </c>
       <c r="X17" t="n">
-        <v>19448.65</v>
+        <v>19370.45</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45162.54326388889</v>
+        <v>45162.64056712963</v>
       </c>
       <c r="B18" t="n">
-        <v>19500</v>
+        <v>19450</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1788,75 +1788,75 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>149827</v>
+        <v>57416</v>
       </c>
       <c r="E18" t="n">
-        <v>74211</v>
+        <v>36413</v>
       </c>
       <c r="F18" t="n">
-        <v>98.1419276343631</v>
+        <v>173.3704708851116</v>
       </c>
       <c r="G18" t="n">
-        <v>676844</v>
+        <v>374448</v>
       </c>
       <c r="H18" t="n">
-        <v>9.050000000000001</v>
+        <v>7.74</v>
       </c>
       <c r="I18" t="n">
-        <v>85.34999999999999</v>
+        <v>70.34999999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>13.69999999999999</v>
+        <v>-24.25</v>
       </c>
       <c r="K18" t="n">
-        <v>19.12072575017444</v>
+        <v>-25.63424947145878</v>
       </c>
       <c r="L18" t="n">
-        <v>368350</v>
+        <v>187250</v>
       </c>
       <c r="M18" t="n">
-        <v>1083750</v>
+        <v>456650</v>
       </c>
       <c r="N18" t="n">
-        <v>110397</v>
+        <v>30276</v>
       </c>
       <c r="O18" t="n">
-        <v>57414</v>
+        <v>14061</v>
       </c>
       <c r="P18" t="n">
-        <v>108.3630598493856</v>
+        <v>86.71600370027753</v>
       </c>
       <c r="Q18" t="n">
-        <v>599198</v>
+        <v>436211</v>
       </c>
       <c r="R18" t="n">
-        <v>9.550000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="S18" t="n">
-        <v>114.85</v>
+        <v>134.7</v>
       </c>
       <c r="T18" t="n">
-        <v>-23.80000000000001</v>
+        <v>22.99999999999999</v>
       </c>
       <c r="U18" t="n">
-        <v>-17.16552470248829</v>
+        <v>20.59086839749327</v>
       </c>
       <c r="V18" t="n">
-        <v>206700</v>
+        <v>112500</v>
       </c>
       <c r="W18" t="n">
-        <v>199350</v>
+        <v>103050</v>
       </c>
       <c r="X18" t="n">
-        <v>19448.65</v>
+        <v>19370.45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45162.54326388889</v>
+        <v>45162.64056712963</v>
       </c>
       <c r="B19" t="n">
-        <v>19550</v>
+        <v>19500</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1864,75 +1864,75 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>46351</v>
+        <v>232250</v>
       </c>
       <c r="E19" t="n">
-        <v>24110</v>
+        <v>156634</v>
       </c>
       <c r="F19" t="n">
-        <v>108.4033991277371</v>
+        <v>207.1439906898011</v>
       </c>
       <c r="G19" t="n">
-        <v>305487</v>
+        <v>1200439</v>
       </c>
       <c r="H19" t="n">
-        <v>9.02</v>
+        <v>7.76</v>
       </c>
       <c r="I19" t="n">
-        <v>65.5</v>
+        <v>51.15</v>
       </c>
       <c r="J19" t="n">
-        <v>12.8</v>
+        <v>-20.50000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>24.28842504743832</v>
+        <v>-28.61130495464062</v>
       </c>
       <c r="L19" t="n">
-        <v>191900</v>
+        <v>338800</v>
       </c>
       <c r="M19" t="n">
-        <v>397050</v>
+        <v>1374000</v>
       </c>
       <c r="N19" t="n">
-        <v>15261</v>
+        <v>115401</v>
       </c>
       <c r="O19" t="n">
-        <v>10887</v>
+        <v>62418</v>
       </c>
       <c r="P19" t="n">
-        <v>248.9026063100137</v>
+        <v>117.8075986637223</v>
       </c>
       <c r="Q19" t="n">
-        <v>175010</v>
+        <v>835724</v>
       </c>
       <c r="R19" t="n">
-        <v>9.470000000000001</v>
+        <v>10.73</v>
       </c>
       <c r="S19" t="n">
-        <v>142.4</v>
+        <v>166.05</v>
       </c>
       <c r="T19" t="n">
-        <v>-26.59999999999999</v>
+        <v>27.40000000000001</v>
       </c>
       <c r="U19" t="n">
-        <v>-15.7396449704142</v>
+        <v>19.76199062387306</v>
       </c>
       <c r="V19" t="n">
-        <v>72850</v>
+        <v>164050</v>
       </c>
       <c r="W19" t="n">
-        <v>52800</v>
+        <v>94600</v>
       </c>
       <c r="X19" t="n">
-        <v>19448.65</v>
+        <v>19370.45</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64008101852</v>
       </c>
       <c r="B20" t="n">
-        <v>19300</v>
+        <v>19250</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1940,75 +1940,75 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>25857</v>
+        <v>3403</v>
       </c>
       <c r="E20" t="n">
-        <v>-2064</v>
+        <v>765</v>
       </c>
       <c r="F20" t="n">
-        <v>-7.392285376598259</v>
+        <v>28.99924184988628</v>
       </c>
       <c r="G20" t="n">
-        <v>52710</v>
+        <v>10213</v>
       </c>
       <c r="H20" t="n">
-        <v>9.44</v>
+        <v>6.41</v>
       </c>
       <c r="I20" t="n">
-        <v>220</v>
+        <v>185.15</v>
       </c>
       <c r="J20" t="n">
-        <v>33</v>
+        <v>-42</v>
       </c>
       <c r="K20" t="n">
-        <v>17.64705882352941</v>
+        <v>-18.48998459167951</v>
       </c>
       <c r="L20" t="n">
-        <v>74650</v>
+        <v>47650</v>
       </c>
       <c r="M20" t="n">
-        <v>94450</v>
+        <v>35500</v>
       </c>
       <c r="N20" t="n">
-        <v>78598</v>
+        <v>30763</v>
       </c>
       <c r="O20" t="n">
-        <v>6246</v>
+        <v>16874</v>
       </c>
       <c r="P20" t="n">
-        <v>8.632795223352499</v>
+        <v>121.4918280653755</v>
       </c>
       <c r="Q20" t="n">
-        <v>312991</v>
+        <v>200793</v>
       </c>
       <c r="R20" t="n">
-        <v>10.07</v>
+        <v>10.46</v>
       </c>
       <c r="S20" t="n">
-        <v>39.65</v>
+        <v>49.3</v>
       </c>
       <c r="T20" t="n">
-        <v>-14.9</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="U20" t="n">
-        <v>-27.31439046746104</v>
+        <v>17.66109785202864</v>
       </c>
       <c r="V20" t="n">
-        <v>295150</v>
+        <v>207450</v>
       </c>
       <c r="W20" t="n">
-        <v>221400</v>
+        <v>77250</v>
       </c>
       <c r="X20" t="n">
-        <v>19448.5</v>
+        <v>19379.05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64008101852</v>
       </c>
       <c r="B21" t="n">
-        <v>19350</v>
+        <v>19300</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2016,75 +2016,75 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>7647</v>
+        <v>34553</v>
       </c>
       <c r="E21" t="n">
-        <v>-1164</v>
+        <v>6632</v>
       </c>
       <c r="F21" t="n">
-        <v>-13.21075927817501</v>
+        <v>23.75273091937968</v>
       </c>
       <c r="G21" t="n">
-        <v>31345</v>
+        <v>109211</v>
       </c>
       <c r="H21" t="n">
-        <v>9.35</v>
+        <v>7.05</v>
       </c>
       <c r="I21" t="n">
-        <v>182</v>
+        <v>148.35</v>
       </c>
       <c r="J21" t="n">
-        <v>28.90000000000001</v>
+        <v>-38.65000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>18.87655127367734</v>
+        <v>-20.66844919786097</v>
       </c>
       <c r="L21" t="n">
-        <v>67950</v>
+        <v>80450</v>
       </c>
       <c r="M21" t="n">
-        <v>64250</v>
+        <v>150700</v>
       </c>
       <c r="N21" t="n">
-        <v>21730</v>
+        <v>85102</v>
       </c>
       <c r="O21" t="n">
-        <v>2863</v>
+        <v>12750</v>
       </c>
       <c r="P21" t="n">
-        <v>15.17464355753432</v>
+        <v>17.62218045112782</v>
       </c>
       <c r="Q21" t="n">
-        <v>147688</v>
+        <v>528804</v>
       </c>
       <c r="R21" t="n">
-        <v>9.880000000000001</v>
+        <v>10.46</v>
       </c>
       <c r="S21" t="n">
-        <v>51.6</v>
+        <v>65.5</v>
       </c>
       <c r="T21" t="n">
-        <v>-17.74999999999999</v>
+        <v>10.95</v>
       </c>
       <c r="U21" t="n">
-        <v>-25.59480894015861</v>
+        <v>20.07332722273145</v>
       </c>
       <c r="V21" t="n">
-        <v>144300</v>
+        <v>316050</v>
       </c>
       <c r="W21" t="n">
-        <v>97950</v>
+        <v>174000</v>
       </c>
       <c r="X21" t="n">
-        <v>19448.5</v>
+        <v>19379.05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64008101852</v>
       </c>
       <c r="B22" t="n">
-        <v>19400</v>
+        <v>19350</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2092,75 +2092,75 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>54764</v>
+        <v>13630</v>
       </c>
       <c r="E22" t="n">
-        <v>289</v>
+        <v>4819</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5305185865075723</v>
+        <v>54.6929973896266</v>
       </c>
       <c r="G22" t="n">
-        <v>190360</v>
+        <v>70412</v>
       </c>
       <c r="H22" t="n">
-        <v>9.24</v>
+        <v>7.45</v>
       </c>
       <c r="I22" t="n">
-        <v>146.75</v>
+        <v>120.65</v>
       </c>
       <c r="J22" t="n">
-        <v>25.40000000000001</v>
+        <v>-32.44999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>20.93119077049856</v>
+        <v>-21.19529719137818</v>
       </c>
       <c r="L22" t="n">
-        <v>170450</v>
+        <v>100450</v>
       </c>
       <c r="M22" t="n">
-        <v>304900</v>
+        <v>93550</v>
       </c>
       <c r="N22" t="n">
-        <v>84246</v>
+        <v>25311</v>
       </c>
       <c r="O22" t="n">
-        <v>7084</v>
+        <v>6444</v>
       </c>
       <c r="P22" t="n">
-        <v>9.180684793032841</v>
+        <v>34.15487358880585</v>
       </c>
       <c r="Q22" t="n">
-        <v>415637</v>
+        <v>266542</v>
       </c>
       <c r="R22" t="n">
-        <v>9.779999999999999</v>
+        <v>10.42</v>
       </c>
       <c r="S22" t="n">
-        <v>67.15000000000001</v>
+        <v>85.15000000000001</v>
       </c>
       <c r="T22" t="n">
-        <v>-21.3</v>
+        <v>15.80000000000001</v>
       </c>
       <c r="U22" t="n">
-        <v>-24.08140192198982</v>
+        <v>22.78298485940881</v>
       </c>
       <c r="V22" t="n">
-        <v>1335550</v>
+        <v>152450</v>
       </c>
       <c r="W22" t="n">
-        <v>267000</v>
+        <v>78900</v>
       </c>
       <c r="X22" t="n">
-        <v>19448.5</v>
+        <v>19379.05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64008101852</v>
       </c>
       <c r="B23" t="n">
-        <v>19450</v>
+        <v>19400</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2168,75 +2168,75 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>28600</v>
+        <v>102889</v>
       </c>
       <c r="E23" t="n">
-        <v>7597</v>
+        <v>48414</v>
       </c>
       <c r="F23" t="n">
-        <v>36.17102318716374</v>
+        <v>88.87379531895365</v>
       </c>
       <c r="G23" t="n">
-        <v>150706</v>
+        <v>510897</v>
       </c>
       <c r="H23" t="n">
-        <v>9.220000000000001</v>
+        <v>7.61</v>
       </c>
       <c r="I23" t="n">
-        <v>117.1</v>
+        <v>93.05</v>
       </c>
       <c r="J23" t="n">
-        <v>22.5</v>
+        <v>-28.3</v>
       </c>
       <c r="K23" t="n">
-        <v>23.78435517970402</v>
+        <v>-23.32097239390193</v>
       </c>
       <c r="L23" t="n">
-        <v>140700</v>
+        <v>267250</v>
       </c>
       <c r="M23" t="n">
-        <v>247900</v>
+        <v>618550</v>
       </c>
       <c r="N23" t="n">
-        <v>29084</v>
+        <v>113602</v>
       </c>
       <c r="O23" t="n">
-        <v>12869</v>
+        <v>36440</v>
       </c>
       <c r="P23" t="n">
-        <v>79.36478569226026</v>
+        <v>47.22531816178948</v>
       </c>
       <c r="Q23" t="n">
-        <v>269294</v>
+        <v>827827</v>
       </c>
       <c r="R23" t="n">
-        <v>9.640000000000001</v>
+        <v>10.45</v>
       </c>
       <c r="S23" t="n">
-        <v>86.59999999999999</v>
+        <v>107.8</v>
       </c>
       <c r="T23" t="n">
-        <v>-25.10000000000001</v>
+        <v>19.34999999999999</v>
       </c>
       <c r="U23" t="n">
-        <v>-22.4709042076992</v>
+        <v>21.87676653476539</v>
       </c>
       <c r="V23" t="n">
-        <v>128200</v>
+        <v>337300</v>
       </c>
       <c r="W23" t="n">
-        <v>174500</v>
+        <v>160850</v>
       </c>
       <c r="X23" t="n">
-        <v>19448.5</v>
+        <v>19379.05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64008101852</v>
       </c>
       <c r="B24" t="n">
-        <v>19500</v>
+        <v>19450</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -2244,75 +2244,75 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>147462</v>
+        <v>57494</v>
       </c>
       <c r="E24" t="n">
-        <v>71846</v>
+        <v>36491</v>
       </c>
       <c r="F24" t="n">
-        <v>95.01428269149386</v>
+        <v>173.7418464028948</v>
       </c>
       <c r="G24" t="n">
-        <v>671857</v>
+        <v>370296</v>
       </c>
       <c r="H24" t="n">
-        <v>9.050000000000001</v>
+        <v>7.74</v>
       </c>
       <c r="I24" t="n">
-        <v>89.5</v>
+        <v>70.5</v>
       </c>
       <c r="J24" t="n">
-        <v>17.84999999999999</v>
+        <v>-24.09999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>24.91277041172365</v>
+        <v>-25.47568710359408</v>
       </c>
       <c r="L24" t="n">
-        <v>431000</v>
+        <v>198750</v>
       </c>
       <c r="M24" t="n">
-        <v>1055750</v>
+        <v>449450</v>
       </c>
       <c r="N24" t="n">
-        <v>109004</v>
+        <v>30276</v>
       </c>
       <c r="O24" t="n">
-        <v>56021</v>
+        <v>14061</v>
       </c>
       <c r="P24" t="n">
-        <v>105.7339146518695</v>
+        <v>86.71600370027753</v>
       </c>
       <c r="Q24" t="n">
-        <v>596565</v>
+        <v>435103</v>
       </c>
       <c r="R24" t="n">
-        <v>9.550000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="S24" t="n">
-        <v>109.35</v>
+        <v>134.85</v>
       </c>
       <c r="T24" t="n">
-        <v>-29.30000000000001</v>
+        <v>23.14999999999999</v>
       </c>
       <c r="U24" t="n">
-        <v>-21.13234763793726</v>
+        <v>20.72515666965084</v>
       </c>
       <c r="V24" t="n">
-        <v>214550</v>
+        <v>104500</v>
       </c>
       <c r="W24" t="n">
-        <v>220100</v>
+        <v>97800</v>
       </c>
       <c r="X24" t="n">
-        <v>19448.5</v>
+        <v>19370.45</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64008101852</v>
       </c>
       <c r="B25" t="n">
-        <v>19550</v>
+        <v>19500</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -2320,75 +2320,75 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>45964</v>
+        <v>232903</v>
       </c>
       <c r="E25" t="n">
-        <v>23723</v>
+        <v>157287</v>
       </c>
       <c r="F25" t="n">
-        <v>106.6633694528124</v>
+        <v>208.007564536606</v>
       </c>
       <c r="G25" t="n">
-        <v>304807</v>
+        <v>1183420</v>
       </c>
       <c r="H25" t="n">
-        <v>9.02</v>
+        <v>7.76</v>
       </c>
       <c r="I25" t="n">
-        <v>67.05</v>
+        <v>50.55</v>
       </c>
       <c r="J25" t="n">
-        <v>14.34999999999999</v>
+        <v>-21.10000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>27.22960151802655</v>
+        <v>-29.44870900209352</v>
       </c>
       <c r="L25" t="n">
-        <v>199400</v>
+        <v>342850</v>
       </c>
       <c r="M25" t="n">
-        <v>389650</v>
+        <v>1354550</v>
       </c>
       <c r="N25" t="n">
-        <v>15285</v>
+        <v>114557</v>
       </c>
       <c r="O25" t="n">
-        <v>10911</v>
+        <v>61574</v>
       </c>
       <c r="P25" t="n">
-        <v>249.4513031550069</v>
+        <v>116.214634882887</v>
       </c>
       <c r="Q25" t="n">
-        <v>174710</v>
+        <v>832548</v>
       </c>
       <c r="R25" t="n">
-        <v>9.470000000000001</v>
+        <v>10.73</v>
       </c>
       <c r="S25" t="n">
-        <v>136</v>
+        <v>169.65</v>
       </c>
       <c r="T25" t="n">
-        <v>-33</v>
+        <v>31</v>
       </c>
       <c r="U25" t="n">
-        <v>-19.52662721893491</v>
+        <v>22.35845654525784</v>
       </c>
       <c r="V25" t="n">
-        <v>72700</v>
+        <v>160700</v>
       </c>
       <c r="W25" t="n">
-        <v>54900</v>
+        <v>79050</v>
       </c>
       <c r="X25" t="n">
-        <v>19448.5</v>
+        <v>19379.05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45162.541875</v>
+        <v>45162.63928240741</v>
       </c>
       <c r="B26" t="n">
-        <v>19300</v>
+        <v>19250</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -2396,75 +2396,75 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>25857</v>
+        <v>3403</v>
       </c>
       <c r="E26" t="n">
-        <v>-2064</v>
+        <v>765</v>
       </c>
       <c r="F26" t="n">
-        <v>-7.392285376598259</v>
+        <v>28.99924184988628</v>
       </c>
       <c r="G26" t="n">
-        <v>52710</v>
+        <v>10117</v>
       </c>
       <c r="H26" t="n">
-        <v>9.44</v>
+        <v>6.41</v>
       </c>
       <c r="I26" t="n">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="J26" t="n">
-        <v>33</v>
+        <v>-46.15000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>17.64705882352941</v>
+        <v>-20.31697116442879</v>
       </c>
       <c r="L26" t="n">
-        <v>74650</v>
+        <v>46550</v>
       </c>
       <c r="M26" t="n">
-        <v>94450</v>
+        <v>36650</v>
       </c>
       <c r="N26" t="n">
-        <v>78598</v>
+        <v>30763</v>
       </c>
       <c r="O26" t="n">
-        <v>6246</v>
+        <v>16874</v>
       </c>
       <c r="P26" t="n">
-        <v>8.632795223352499</v>
+        <v>121.4918280653755</v>
       </c>
       <c r="Q26" t="n">
-        <v>312991</v>
+        <v>197066</v>
       </c>
       <c r="R26" t="n">
-        <v>10.07</v>
+        <v>10.46</v>
       </c>
       <c r="S26" t="n">
-        <v>39.65</v>
+        <v>52.95</v>
       </c>
       <c r="T26" t="n">
-        <v>-14.9</v>
+        <v>11.05</v>
       </c>
       <c r="U26" t="n">
-        <v>-27.31439046746104</v>
+        <v>26.37231503579953</v>
       </c>
       <c r="V26" t="n">
-        <v>295150</v>
+        <v>227800</v>
       </c>
       <c r="W26" t="n">
-        <v>221400</v>
+        <v>72700</v>
       </c>
       <c r="X26" t="n">
-        <v>19448.5</v>
+        <v>19379.05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45162.541875</v>
+        <v>45162.63928240741</v>
       </c>
       <c r="B27" t="n">
-        <v>19350</v>
+        <v>19300</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -2472,75 +2472,75 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>7647</v>
+        <v>34553</v>
       </c>
       <c r="E27" t="n">
-        <v>-1164</v>
+        <v>6632</v>
       </c>
       <c r="F27" t="n">
-        <v>-13.21075927817501</v>
+        <v>23.75273091937968</v>
       </c>
       <c r="G27" t="n">
-        <v>31345</v>
+        <v>108194</v>
       </c>
       <c r="H27" t="n">
-        <v>9.35</v>
+        <v>7.05</v>
       </c>
       <c r="I27" t="n">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="J27" t="n">
-        <v>28.90000000000001</v>
+        <v>-40</v>
       </c>
       <c r="K27" t="n">
-        <v>18.87655127367734</v>
+        <v>-21.3903743315508</v>
       </c>
       <c r="L27" t="n">
-        <v>67950</v>
+        <v>72950</v>
       </c>
       <c r="M27" t="n">
-        <v>64250</v>
+        <v>182500</v>
       </c>
       <c r="N27" t="n">
-        <v>21730</v>
+        <v>85102</v>
       </c>
       <c r="O27" t="n">
-        <v>2863</v>
+        <v>12750</v>
       </c>
       <c r="P27" t="n">
-        <v>15.17464355753432</v>
+        <v>17.62218045112782</v>
       </c>
       <c r="Q27" t="n">
-        <v>147688</v>
+        <v>523206</v>
       </c>
       <c r="R27" t="n">
-        <v>9.880000000000001</v>
+        <v>10.46</v>
       </c>
       <c r="S27" t="n">
-        <v>51.6</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="T27" t="n">
-        <v>-17.74999999999999</v>
+        <v>15.05</v>
       </c>
       <c r="U27" t="n">
-        <v>-25.59480894015861</v>
+        <v>27.58936755270394</v>
       </c>
       <c r="V27" t="n">
-        <v>144300</v>
+        <v>337050</v>
       </c>
       <c r="W27" t="n">
-        <v>97950</v>
+        <v>145550</v>
       </c>
       <c r="X27" t="n">
-        <v>19448.5</v>
+        <v>19379.05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45162.541875</v>
+        <v>45162.63928240741</v>
       </c>
       <c r="B28" t="n">
-        <v>19400</v>
+        <v>19350</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -2548,75 +2548,75 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>54764</v>
+        <v>13630</v>
       </c>
       <c r="E28" t="n">
-        <v>289</v>
+        <v>4819</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5305185865075723</v>
+        <v>54.6929973896266</v>
       </c>
       <c r="G28" t="n">
-        <v>190360</v>
+        <v>68855</v>
       </c>
       <c r="H28" t="n">
-        <v>9.24</v>
+        <v>7.45</v>
       </c>
       <c r="I28" t="n">
-        <v>146.75</v>
+        <v>117.55</v>
       </c>
       <c r="J28" t="n">
-        <v>25.40000000000001</v>
+        <v>-35.55</v>
       </c>
       <c r="K28" t="n">
-        <v>20.93119077049856</v>
+        <v>-23.22011757021555</v>
       </c>
       <c r="L28" t="n">
-        <v>170450</v>
+        <v>78300</v>
       </c>
       <c r="M28" t="n">
-        <v>304900</v>
+        <v>99500</v>
       </c>
       <c r="N28" t="n">
-        <v>84246</v>
+        <v>25311</v>
       </c>
       <c r="O28" t="n">
-        <v>7084</v>
+        <v>6444</v>
       </c>
       <c r="P28" t="n">
-        <v>9.180684793032841</v>
+        <v>34.15487358880585</v>
       </c>
       <c r="Q28" t="n">
-        <v>415637</v>
+        <v>264006</v>
       </c>
       <c r="R28" t="n">
-        <v>9.779999999999999</v>
+        <v>10.42</v>
       </c>
       <c r="S28" t="n">
-        <v>67.15000000000001</v>
+        <v>89</v>
       </c>
       <c r="T28" t="n">
-        <v>-21.3</v>
+        <v>19.65000000000001</v>
       </c>
       <c r="U28" t="n">
-        <v>-24.08140192198982</v>
+        <v>28.33453496755589</v>
       </c>
       <c r="V28" t="n">
-        <v>1335550</v>
+        <v>165500</v>
       </c>
       <c r="W28" t="n">
-        <v>267000</v>
+        <v>82250</v>
       </c>
       <c r="X28" t="n">
-        <v>19448.5</v>
+        <v>19379.05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45162.541875</v>
+        <v>45162.63928240741</v>
       </c>
       <c r="B29" t="n">
-        <v>19450</v>
+        <v>19400</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -2624,75 +2624,75 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>28600</v>
+        <v>102889</v>
       </c>
       <c r="E29" t="n">
-        <v>7597</v>
+        <v>48414</v>
       </c>
       <c r="F29" t="n">
-        <v>36.17102318716374</v>
+        <v>88.87379531895365</v>
       </c>
       <c r="G29" t="n">
-        <v>150706</v>
+        <v>502705</v>
       </c>
       <c r="H29" t="n">
-        <v>9.220000000000001</v>
+        <v>7.61</v>
       </c>
       <c r="I29" t="n">
-        <v>117.1</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>22.5</v>
+        <v>-30.75</v>
       </c>
       <c r="K29" t="n">
-        <v>23.78435517970402</v>
+        <v>-25.33992583436341</v>
       </c>
       <c r="L29" t="n">
-        <v>140700</v>
+        <v>239450</v>
       </c>
       <c r="M29" t="n">
-        <v>247900</v>
+        <v>658450</v>
       </c>
       <c r="N29" t="n">
-        <v>29084</v>
+        <v>113602</v>
       </c>
       <c r="O29" t="n">
-        <v>12869</v>
+        <v>36440</v>
       </c>
       <c r="P29" t="n">
-        <v>79.36478569226026</v>
+        <v>47.22531816178948</v>
       </c>
       <c r="Q29" t="n">
-        <v>269294</v>
+        <v>818588</v>
       </c>
       <c r="R29" t="n">
-        <v>9.640000000000001</v>
+        <v>10.45</v>
       </c>
       <c r="S29" t="n">
-        <v>86.59999999999999</v>
+        <v>113</v>
       </c>
       <c r="T29" t="n">
-        <v>-25.10000000000001</v>
+        <v>24.55</v>
       </c>
       <c r="U29" t="n">
-        <v>-22.4709042076992</v>
+        <v>27.75579423403052</v>
       </c>
       <c r="V29" t="n">
-        <v>128200</v>
+        <v>432850</v>
       </c>
       <c r="W29" t="n">
-        <v>174500</v>
+        <v>127650</v>
       </c>
       <c r="X29" t="n">
-        <v>19448.5</v>
+        <v>19379.05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45162.541875</v>
+        <v>45162.63928240741</v>
       </c>
       <c r="B30" t="n">
-        <v>19500</v>
+        <v>19450</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2700,75 +2700,75 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>147462</v>
+        <v>57494</v>
       </c>
       <c r="E30" t="n">
-        <v>71846</v>
+        <v>36491</v>
       </c>
       <c r="F30" t="n">
-        <v>95.01428269149386</v>
+        <v>173.7418464028948</v>
       </c>
       <c r="G30" t="n">
-        <v>671857</v>
+        <v>367637</v>
       </c>
       <c r="H30" t="n">
-        <v>9.050000000000001</v>
+        <v>7.74</v>
       </c>
       <c r="I30" t="n">
-        <v>89.5</v>
+        <v>68.75</v>
       </c>
       <c r="J30" t="n">
-        <v>17.84999999999999</v>
+        <v>-25.84999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>24.91277041172365</v>
+        <v>-27.32558139534883</v>
       </c>
       <c r="L30" t="n">
-        <v>431000</v>
+        <v>172250</v>
       </c>
       <c r="M30" t="n">
-        <v>1055750</v>
+        <v>480650</v>
       </c>
       <c r="N30" t="n">
-        <v>109004</v>
+        <v>32018</v>
       </c>
       <c r="O30" t="n">
-        <v>56021</v>
+        <v>15803</v>
       </c>
       <c r="P30" t="n">
-        <v>105.7339146518695</v>
+        <v>97.45914276904101</v>
       </c>
       <c r="Q30" t="n">
-        <v>596565</v>
+        <v>432742</v>
       </c>
       <c r="R30" t="n">
-        <v>9.550000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="S30" t="n">
-        <v>109.35</v>
+        <v>140.7</v>
       </c>
       <c r="T30" t="n">
-        <v>-29.30000000000001</v>
+        <v>28.99999999999999</v>
       </c>
       <c r="U30" t="n">
-        <v>-21.13234763793726</v>
+        <v>25.96239928379587</v>
       </c>
       <c r="V30" t="n">
-        <v>214550</v>
+        <v>117700</v>
       </c>
       <c r="W30" t="n">
-        <v>220100</v>
+        <v>91450</v>
       </c>
       <c r="X30" t="n">
-        <v>19448.5</v>
+        <v>19379.05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45162.541875</v>
+        <v>45162.63928240741</v>
       </c>
       <c r="B31" t="n">
-        <v>19550</v>
+        <v>19500</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -2776,72 +2776,72 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>45964</v>
+        <v>232903</v>
       </c>
       <c r="E31" t="n">
-        <v>23723</v>
+        <v>157287</v>
       </c>
       <c r="F31" t="n">
-        <v>106.6633694528124</v>
+        <v>208.007564536606</v>
       </c>
       <c r="G31" t="n">
-        <v>304807</v>
+        <v>1179125</v>
       </c>
       <c r="H31" t="n">
-        <v>9.02</v>
+        <v>7.76</v>
       </c>
       <c r="I31" t="n">
-        <v>67.05</v>
+        <v>50</v>
       </c>
       <c r="J31" t="n">
-        <v>14.34999999999999</v>
+        <v>-21.65000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>27.22960151802655</v>
+        <v>-30.21632937892534</v>
       </c>
       <c r="L31" t="n">
-        <v>199400</v>
+        <v>338700</v>
       </c>
       <c r="M31" t="n">
-        <v>389650</v>
+        <v>1399450</v>
       </c>
       <c r="N31" t="n">
-        <v>15285</v>
+        <v>114557</v>
       </c>
       <c r="O31" t="n">
-        <v>10911</v>
+        <v>61574</v>
       </c>
       <c r="P31" t="n">
-        <v>249.4513031550069</v>
+        <v>116.214634882887</v>
       </c>
       <c r="Q31" t="n">
-        <v>174710</v>
+        <v>831621</v>
       </c>
       <c r="R31" t="n">
-        <v>9.470000000000001</v>
+        <v>10.73</v>
       </c>
       <c r="S31" t="n">
-        <v>136</v>
+        <v>172.6</v>
       </c>
       <c r="T31" t="n">
-        <v>-33</v>
+        <v>33.94999999999999</v>
       </c>
       <c r="U31" t="n">
-        <v>-19.52662721893491</v>
+        <v>24.48611611972592</v>
       </c>
       <c r="V31" t="n">
-        <v>72700</v>
+        <v>173650</v>
       </c>
       <c r="W31" t="n">
-        <v>54900</v>
+        <v>73050</v>
       </c>
       <c r="X31" t="n">
-        <v>19448.5</v>
+        <v>19379.05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45162.54118055556</v>
+        <v>45162.54465277777</v>
       </c>
       <c r="B32" t="n">
         <v>19350</v>
@@ -2852,72 +2852,72 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>7647</v>
+        <v>8246</v>
       </c>
       <c r="E32" t="n">
-        <v>-1164</v>
+        <v>-565</v>
       </c>
       <c r="F32" t="n">
-        <v>-13.21075927817501</v>
+        <v>-6.412438996708659</v>
       </c>
       <c r="G32" t="n">
-        <v>30743</v>
+        <v>31771</v>
       </c>
       <c r="H32" t="n">
-        <v>9.35</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>182.75</v>
+        <v>180.4</v>
       </c>
       <c r="J32" t="n">
-        <v>29.65000000000001</v>
+        <v>27.30000000000001</v>
       </c>
       <c r="K32" t="n">
-        <v>19.36642717178315</v>
+        <v>17.83148269105161</v>
       </c>
       <c r="L32" t="n">
-        <v>66900</v>
+        <v>69750</v>
       </c>
       <c r="M32" t="n">
-        <v>60500</v>
+        <v>61050</v>
       </c>
       <c r="N32" t="n">
-        <v>21730</v>
+        <v>21833</v>
       </c>
       <c r="O32" t="n">
-        <v>2863</v>
+        <v>2966</v>
       </c>
       <c r="P32" t="n">
-        <v>15.17464355753432</v>
+        <v>15.72057030794509</v>
       </c>
       <c r="Q32" t="n">
-        <v>147332</v>
+        <v>149109</v>
       </c>
       <c r="R32" t="n">
         <v>9.880000000000001</v>
       </c>
       <c r="S32" t="n">
-        <v>51.45</v>
+        <v>52.8</v>
       </c>
       <c r="T32" t="n">
-        <v>-17.89999999999999</v>
+        <v>-16.55</v>
       </c>
       <c r="U32" t="n">
-        <v>-25.81110310021628</v>
+        <v>-23.86445565969719</v>
       </c>
       <c r="V32" t="n">
-        <v>140150</v>
+        <v>145200</v>
       </c>
       <c r="W32" t="n">
-        <v>104000</v>
+        <v>111700</v>
       </c>
       <c r="X32" t="n">
-        <v>19446.25</v>
+        <v>19445.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45162.54118055556</v>
+        <v>45162.54465277777</v>
       </c>
       <c r="B33" t="n">
         <v>19400</v>
@@ -2928,72 +2928,72 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>54764</v>
+        <v>56134</v>
       </c>
       <c r="E33" t="n">
-        <v>289</v>
+        <v>1659</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5305185865075723</v>
+        <v>3.045433685176687</v>
       </c>
       <c r="G33" t="n">
-        <v>188751</v>
+        <v>195920</v>
       </c>
       <c r="H33" t="n">
-        <v>9.24</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>148.35</v>
+        <v>145.55</v>
       </c>
       <c r="J33" t="n">
-        <v>27</v>
+        <v>24.20000000000002</v>
       </c>
       <c r="K33" t="n">
-        <v>22.24969097651422</v>
+        <v>19.94231561598683</v>
       </c>
       <c r="L33" t="n">
-        <v>166850</v>
+        <v>161700</v>
       </c>
       <c r="M33" t="n">
-        <v>298200</v>
+        <v>296750</v>
       </c>
       <c r="N33" t="n">
-        <v>84246</v>
+        <v>85286</v>
       </c>
       <c r="O33" t="n">
-        <v>7084</v>
+        <v>8124</v>
       </c>
       <c r="P33" t="n">
-        <v>9.180684793032841</v>
+        <v>10.5284984837096</v>
       </c>
       <c r="Q33" t="n">
-        <v>413198</v>
+        <v>421770</v>
       </c>
       <c r="R33" t="n">
-        <v>9.779999999999999</v>
+        <v>9.76</v>
       </c>
       <c r="S33" t="n">
-        <v>67.25</v>
+        <v>68.65000000000001</v>
       </c>
       <c r="T33" t="n">
-        <v>-21.2</v>
+        <v>-19.8</v>
       </c>
       <c r="U33" t="n">
-        <v>-23.96834369700396</v>
+        <v>-22.3855285472018</v>
       </c>
       <c r="V33" t="n">
-        <v>1334450</v>
+        <v>1329950</v>
       </c>
       <c r="W33" t="n">
-        <v>267250</v>
+        <v>271700</v>
       </c>
       <c r="X33" t="n">
-        <v>19446.25</v>
+        <v>19445.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45162.54118055556</v>
+        <v>45162.54465277777</v>
       </c>
       <c r="B34" t="n">
         <v>19450</v>
@@ -3004,72 +3004,72 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>28600</v>
+        <v>30434</v>
       </c>
       <c r="E34" t="n">
-        <v>7597</v>
+        <v>9431</v>
       </c>
       <c r="F34" t="n">
-        <v>36.17102318716374</v>
+        <v>44.90310907965529</v>
       </c>
       <c r="G34" t="n">
-        <v>149194</v>
+        <v>155107</v>
       </c>
       <c r="H34" t="n">
-        <v>9.220000000000001</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="I34" t="n">
-        <v>117.95</v>
+        <v>115.1</v>
       </c>
       <c r="J34" t="n">
-        <v>23.35000000000001</v>
+        <v>20.5</v>
       </c>
       <c r="K34" t="n">
-        <v>24.68287526427062</v>
+        <v>21.67019027484144</v>
       </c>
       <c r="L34" t="n">
-        <v>142350</v>
+        <v>142750</v>
       </c>
       <c r="M34" t="n">
-        <v>239400</v>
+        <v>259050</v>
       </c>
       <c r="N34" t="n">
-        <v>29084</v>
+        <v>29535</v>
       </c>
       <c r="O34" t="n">
-        <v>12869</v>
+        <v>13320</v>
       </c>
       <c r="P34" t="n">
-        <v>79.36478569226026</v>
+        <v>82.14616096207216</v>
       </c>
       <c r="Q34" t="n">
-        <v>267936</v>
+        <v>272493</v>
       </c>
       <c r="R34" t="n">
-        <v>9.640000000000001</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="S34" t="n">
-        <v>86.15000000000001</v>
+        <v>88</v>
       </c>
       <c r="T34" t="n">
-        <v>-25.55</v>
+        <v>-23.7</v>
       </c>
       <c r="U34" t="n">
-        <v>-22.87376902417189</v>
+        <v>-21.21754700089526</v>
       </c>
       <c r="V34" t="n">
-        <v>125450</v>
+        <v>129250</v>
       </c>
       <c r="W34" t="n">
-        <v>172250</v>
+        <v>169500</v>
       </c>
       <c r="X34" t="n">
-        <v>19446.25</v>
+        <v>19445.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45162.54118055556</v>
+        <v>45162.54465277777</v>
       </c>
       <c r="B35" t="n">
         <v>19500</v>
@@ -3080,72 +3080,72 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>147462</v>
+        <v>153979</v>
       </c>
       <c r="E35" t="n">
-        <v>71846</v>
+        <v>78363</v>
       </c>
       <c r="F35" t="n">
-        <v>95.01428269149386</v>
+        <v>103.6328290308929</v>
       </c>
       <c r="G35" t="n">
-        <v>665368</v>
+        <v>684834</v>
       </c>
       <c r="H35" t="n">
-        <v>9.050000000000001</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="I35" t="n">
-        <v>90.34999999999999</v>
+        <v>87.95</v>
       </c>
       <c r="J35" t="n">
-        <v>18.69999999999999</v>
+        <v>16.3</v>
       </c>
       <c r="K35" t="n">
-        <v>26.09909281228191</v>
+        <v>22.74947662247034</v>
       </c>
       <c r="L35" t="n">
-        <v>433250</v>
+        <v>409750</v>
       </c>
       <c r="M35" t="n">
-        <v>1004100</v>
+        <v>1059300</v>
       </c>
       <c r="N35" t="n">
-        <v>109004</v>
+        <v>111123</v>
       </c>
       <c r="O35" t="n">
-        <v>56021</v>
+        <v>58140</v>
       </c>
       <c r="P35" t="n">
-        <v>105.7339146518695</v>
+        <v>109.7333106845592</v>
       </c>
       <c r="Q35" t="n">
-        <v>592125</v>
+        <v>603006</v>
       </c>
       <c r="R35" t="n">
-        <v>9.550000000000001</v>
+        <v>9.59</v>
       </c>
       <c r="S35" t="n">
-        <v>109.85</v>
+        <v>111.65</v>
       </c>
       <c r="T35" t="n">
-        <v>-28.80000000000001</v>
+        <v>-27</v>
       </c>
       <c r="U35" t="n">
-        <v>-20.77172737107826</v>
+        <v>-19.47349441038586</v>
       </c>
       <c r="V35" t="n">
-        <v>203650</v>
+        <v>211850</v>
       </c>
       <c r="W35" t="n">
-        <v>222200</v>
+        <v>212450</v>
       </c>
       <c r="X35" t="n">
-        <v>19446.25</v>
+        <v>19445.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45162.54118055556</v>
+        <v>45162.54465277777</v>
       </c>
       <c r="B36" t="n">
         <v>19550</v>
@@ -3156,72 +3156,72 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>45964</v>
+        <v>46708</v>
       </c>
       <c r="E36" t="n">
-        <v>23723</v>
+        <v>24467</v>
       </c>
       <c r="F36" t="n">
-        <v>106.6633694528124</v>
+        <v>110.0085427813498</v>
       </c>
       <c r="G36" t="n">
-        <v>304030</v>
+        <v>307621</v>
       </c>
       <c r="H36" t="n">
-        <v>9.02</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="I36" t="n">
-        <v>68.09999999999999</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="J36" t="n">
-        <v>15.39999999999999</v>
+        <v>13.2</v>
       </c>
       <c r="K36" t="n">
-        <v>29.22201138519923</v>
+        <v>25.04743833017078</v>
       </c>
       <c r="L36" t="n">
-        <v>203700</v>
+        <v>211750</v>
       </c>
       <c r="M36" t="n">
-        <v>380250</v>
+        <v>388300</v>
       </c>
       <c r="N36" t="n">
-        <v>15285</v>
+        <v>15245</v>
       </c>
       <c r="O36" t="n">
-        <v>10911</v>
+        <v>10871</v>
       </c>
       <c r="P36" t="n">
-        <v>249.4513031550069</v>
+        <v>248.5368084133516</v>
       </c>
       <c r="Q36" t="n">
-        <v>174363</v>
+        <v>175450</v>
       </c>
       <c r="R36" t="n">
-        <v>9.470000000000001</v>
+        <v>9.41</v>
       </c>
       <c r="S36" t="n">
-        <v>136</v>
+        <v>138.85</v>
       </c>
       <c r="T36" t="n">
-        <v>-33</v>
+        <v>-30.15000000000001</v>
       </c>
       <c r="U36" t="n">
-        <v>-19.52662721893491</v>
+        <v>-17.84023668639054</v>
       </c>
       <c r="V36" t="n">
-        <v>71950</v>
+        <v>70900</v>
       </c>
       <c r="W36" t="n">
-        <v>51900</v>
+        <v>54200</v>
       </c>
       <c r="X36" t="n">
-        <v>19446.25</v>
+        <v>19445.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45162.54118055556</v>
+        <v>45162.54465277777</v>
       </c>
       <c r="B37" t="n">
         <v>19600</v>
@@ -3232,66 +3232,2346 @@
         </is>
       </c>
       <c r="D37" t="n">
+        <v>100972</v>
+      </c>
+      <c r="E37" t="n">
+        <v>31138</v>
+      </c>
+      <c r="F37" t="n">
+        <v>44.5885958129278</v>
+      </c>
+      <c r="G37" t="n">
+        <v>538431</v>
+      </c>
+      <c r="H37" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="I37" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="J37" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K37" t="n">
+        <v>28.80215343203231</v>
+      </c>
+      <c r="L37" t="n">
+        <v>286800</v>
+      </c>
+      <c r="M37" t="n">
+        <v>748100</v>
+      </c>
+      <c r="N37" t="n">
+        <v>28782</v>
+      </c>
+      <c r="O37" t="n">
+        <v>11535</v>
+      </c>
+      <c r="P37" t="n">
+        <v>66.88119672986606</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>212225</v>
+      </c>
+      <c r="R37" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="S37" t="n">
+        <v>170.7</v>
+      </c>
+      <c r="T37" t="n">
+        <v>-34.55000000000001</v>
+      </c>
+      <c r="U37" t="n">
+        <v>-16.83313032886724</v>
+      </c>
+      <c r="V37" t="n">
+        <v>107400</v>
+      </c>
+      <c r="W37" t="n">
+        <v>77950</v>
+      </c>
+      <c r="X37" t="n">
+        <v>19445.4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45162.54395833334</v>
+      </c>
+      <c r="B38" t="n">
+        <v>19350</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>8246</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-565</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-6.412438996708659</v>
+      </c>
+      <c r="G38" t="n">
+        <v>31714</v>
+      </c>
+      <c r="H38" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="I38" t="n">
+        <v>178</v>
+      </c>
+      <c r="J38" t="n">
+        <v>24.90000000000001</v>
+      </c>
+      <c r="K38" t="n">
+        <v>16.263879817113</v>
+      </c>
+      <c r="L38" t="n">
+        <v>69900</v>
+      </c>
+      <c r="M38" t="n">
+        <v>56350</v>
+      </c>
+      <c r="N38" t="n">
+        <v>21833</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2966</v>
+      </c>
+      <c r="P38" t="n">
+        <v>15.72057030794509</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>148614</v>
+      </c>
+      <c r="R38" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="S38" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="T38" t="n">
+        <v>-15.24999999999999</v>
+      </c>
+      <c r="U38" t="n">
+        <v>-21.98990627253063</v>
+      </c>
+      <c r="V38" t="n">
+        <v>138800</v>
+      </c>
+      <c r="W38" t="n">
+        <v>105150</v>
+      </c>
+      <c r="X38" t="n">
+        <v>19445.4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45162.54395833334</v>
+      </c>
+      <c r="B39" t="n">
+        <v>19400</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>56134</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1659</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3.045433685176687</v>
+      </c>
+      <c r="G39" t="n">
+        <v>193820</v>
+      </c>
+      <c r="H39" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="I39" t="n">
+        <v>144.45</v>
+      </c>
+      <c r="J39" t="n">
+        <v>23.09999999999999</v>
+      </c>
+      <c r="K39" t="n">
+        <v>19.03584672435105</v>
+      </c>
+      <c r="L39" t="n">
+        <v>162300</v>
+      </c>
+      <c r="M39" t="n">
+        <v>304600</v>
+      </c>
+      <c r="N39" t="n">
+        <v>85286</v>
+      </c>
+      <c r="O39" t="n">
+        <v>8124</v>
+      </c>
+      <c r="P39" t="n">
+        <v>10.5284984837096</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>419983</v>
+      </c>
+      <c r="R39" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="S39" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="T39" t="n">
+        <v>-18.25</v>
+      </c>
+      <c r="U39" t="n">
+        <v>-20.63312605992086</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1325200</v>
+      </c>
+      <c r="W39" t="n">
+        <v>274450</v>
+      </c>
+      <c r="X39" t="n">
+        <v>19445.4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45162.54395833334</v>
+      </c>
+      <c r="B40" t="n">
+        <v>19450</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>30434</v>
+      </c>
+      <c r="E40" t="n">
+        <v>9431</v>
+      </c>
+      <c r="F40" t="n">
+        <v>44.90310907965529</v>
+      </c>
+      <c r="G40" t="n">
+        <v>153964</v>
+      </c>
+      <c r="H40" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="I40" t="n">
+        <v>113.65</v>
+      </c>
+      <c r="J40" t="n">
+        <v>19.05000000000001</v>
+      </c>
+      <c r="K40" t="n">
+        <v>20.13742071881608</v>
+      </c>
+      <c r="L40" t="n">
+        <v>138650</v>
+      </c>
+      <c r="M40" t="n">
+        <v>261750</v>
+      </c>
+      <c r="N40" t="n">
+        <v>29535</v>
+      </c>
+      <c r="O40" t="n">
+        <v>13320</v>
+      </c>
+      <c r="P40" t="n">
+        <v>82.14616096207216</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>271751</v>
+      </c>
+      <c r="R40" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="S40" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="T40" t="n">
+        <v>-22.8</v>
+      </c>
+      <c r="U40" t="n">
+        <v>-20.41181736794987</v>
+      </c>
+      <c r="V40" t="n">
+        <v>124100</v>
+      </c>
+      <c r="W40" t="n">
+        <v>169250</v>
+      </c>
+      <c r="X40" t="n">
+        <v>19445.4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45162.54395833334</v>
+      </c>
+      <c r="B41" t="n">
+        <v>19500</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>153979</v>
+      </c>
+      <c r="E41" t="n">
+        <v>78363</v>
+      </c>
+      <c r="F41" t="n">
+        <v>103.6328290308929</v>
+      </c>
+      <c r="G41" t="n">
+        <v>680215</v>
+      </c>
+      <c r="H41" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="I41" t="n">
+        <v>87.25</v>
+      </c>
+      <c r="J41" t="n">
+        <v>15.59999999999999</v>
+      </c>
+      <c r="K41" t="n">
+        <v>21.77250523377528</v>
+      </c>
+      <c r="L41" t="n">
+        <v>395700</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1059550</v>
+      </c>
+      <c r="N41" t="n">
+        <v>111123</v>
+      </c>
+      <c r="O41" t="n">
+        <v>58140</v>
+      </c>
+      <c r="P41" t="n">
+        <v>109.7333106845592</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>600806</v>
+      </c>
+      <c r="R41" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="S41" t="n">
+        <v>112.8</v>
+      </c>
+      <c r="T41" t="n">
+        <v>-25.85000000000001</v>
+      </c>
+      <c r="U41" t="n">
+        <v>-18.64406779661018</v>
+      </c>
+      <c r="V41" t="n">
+        <v>206700</v>
+      </c>
+      <c r="W41" t="n">
+        <v>207050</v>
+      </c>
+      <c r="X41" t="n">
+        <v>19445.4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45162.54395833334</v>
+      </c>
+      <c r="B42" t="n">
+        <v>19550</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>46708</v>
+      </c>
+      <c r="E42" t="n">
+        <v>24467</v>
+      </c>
+      <c r="F42" t="n">
+        <v>110.0085427813498</v>
+      </c>
+      <c r="G42" t="n">
+        <v>306755</v>
+      </c>
+      <c r="H42" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="I42" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="J42" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K42" t="n">
+        <v>24.28842504743832</v>
+      </c>
+      <c r="L42" t="n">
+        <v>217500</v>
+      </c>
+      <c r="M42" t="n">
+        <v>389750</v>
+      </c>
+      <c r="N42" t="n">
+        <v>15245</v>
+      </c>
+      <c r="O42" t="n">
+        <v>10871</v>
+      </c>
+      <c r="P42" t="n">
+        <v>248.5368084133516</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>175264</v>
+      </c>
+      <c r="R42" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="S42" t="n">
+        <v>139.75</v>
+      </c>
+      <c r="T42" t="n">
+        <v>-29.25</v>
+      </c>
+      <c r="U42" t="n">
+        <v>-17.30769230769231</v>
+      </c>
+      <c r="V42" t="n">
+        <v>71300</v>
+      </c>
+      <c r="W42" t="n">
+        <v>55100</v>
+      </c>
+      <c r="X42" t="n">
+        <v>19445.4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45162.54395833334</v>
+      </c>
+      <c r="B43" t="n">
+        <v>19600</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>100972</v>
+      </c>
+      <c r="E43" t="n">
+        <v>31138</v>
+      </c>
+      <c r="F43" t="n">
+        <v>44.5885958129278</v>
+      </c>
+      <c r="G43" t="n">
+        <v>536112</v>
+      </c>
+      <c r="H43" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="I43" t="n">
+        <v>46.95</v>
+      </c>
+      <c r="J43" t="n">
+        <v>9.800000000000004</v>
+      </c>
+      <c r="K43" t="n">
+        <v>26.37954239569315</v>
+      </c>
+      <c r="L43" t="n">
+        <v>278200</v>
+      </c>
+      <c r="M43" t="n">
+        <v>738750</v>
+      </c>
+      <c r="N43" t="n">
+        <v>28782</v>
+      </c>
+      <c r="O43" t="n">
+        <v>11535</v>
+      </c>
+      <c r="P43" t="n">
+        <v>66.88119672986606</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>211655</v>
+      </c>
+      <c r="R43" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="S43" t="n">
+        <v>172</v>
+      </c>
+      <c r="T43" t="n">
+        <v>-33.25</v>
+      </c>
+      <c r="U43" t="n">
+        <v>-16.19975639464068</v>
+      </c>
+      <c r="V43" t="n">
+        <v>102800</v>
+      </c>
+      <c r="W43" t="n">
+        <v>83900</v>
+      </c>
+      <c r="X43" t="n">
+        <v>19445.4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45162.54326388889</v>
+      </c>
+      <c r="B44" t="n">
+        <v>19300</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>25857</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-2064</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-7.392285376598259</v>
+      </c>
+      <c r="G44" t="n">
+        <v>53017</v>
+      </c>
+      <c r="H44" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="I44" t="n">
+        <v>212.9</v>
+      </c>
+      <c r="J44" t="n">
+        <v>25.90000000000001</v>
+      </c>
+      <c r="K44" t="n">
+        <v>13.85026737967915</v>
+      </c>
+      <c r="L44" t="n">
+        <v>73500</v>
+      </c>
+      <c r="M44" t="n">
+        <v>94900</v>
+      </c>
+      <c r="N44" t="n">
+        <v>78743</v>
+      </c>
+      <c r="O44" t="n">
+        <v>6391</v>
+      </c>
+      <c r="P44" t="n">
+        <v>8.833204334365325</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>314284</v>
+      </c>
+      <c r="R44" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="S44" t="n">
+        <v>42</v>
+      </c>
+      <c r="T44" t="n">
+        <v>-12.55</v>
+      </c>
+      <c r="U44" t="n">
+        <v>-23.006416131989</v>
+      </c>
+      <c r="V44" t="n">
+        <v>324900</v>
+      </c>
+      <c r="W44" t="n">
+        <v>215800</v>
+      </c>
+      <c r="X44" t="n">
+        <v>19448.65</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45162.54326388889</v>
+      </c>
+      <c r="B45" t="n">
+        <v>19350</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>7671</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-1140</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-12.93837248893429</v>
+      </c>
+      <c r="G45" t="n">
+        <v>31461</v>
+      </c>
+      <c r="H45" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="I45" t="n">
+        <v>178.45</v>
+      </c>
+      <c r="J45" t="n">
+        <v>25.34999999999999</v>
+      </c>
+      <c r="K45" t="n">
+        <v>16.55780535597648</v>
+      </c>
+      <c r="L45" t="n">
+        <v>66250</v>
+      </c>
+      <c r="M45" t="n">
+        <v>63900</v>
+      </c>
+      <c r="N45" t="n">
+        <v>21757</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2890</v>
+      </c>
+      <c r="P45" t="n">
+        <v>15.31775056977792</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>148145</v>
+      </c>
+      <c r="R45" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="S45" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="T45" t="n">
+        <v>-15.05</v>
+      </c>
+      <c r="U45" t="n">
+        <v>-21.7015140591204</v>
+      </c>
+      <c r="V45" t="n">
+        <v>137900</v>
+      </c>
+      <c r="W45" t="n">
+        <v>104150</v>
+      </c>
+      <c r="X45" t="n">
+        <v>19448.65</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45162.54326388889</v>
+      </c>
+      <c r="B46" t="n">
+        <v>19400</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>55257</v>
+      </c>
+      <c r="E46" t="n">
+        <v>782</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.435520881138137</v>
+      </c>
+      <c r="G46" t="n">
+        <v>192363</v>
+      </c>
+      <c r="H46" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="I46" t="n">
+        <v>141.65</v>
+      </c>
+      <c r="J46" t="n">
+        <v>20.30000000000001</v>
+      </c>
+      <c r="K46" t="n">
+        <v>16.72847136382366</v>
+      </c>
+      <c r="L46" t="n">
+        <v>156350</v>
+      </c>
+      <c r="M46" t="n">
+        <v>310550</v>
+      </c>
+      <c r="N46" t="n">
+        <v>84968</v>
+      </c>
+      <c r="O46" t="n">
+        <v>7806</v>
+      </c>
+      <c r="P46" t="n">
+        <v>10.11637852829113</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>417239</v>
+      </c>
+      <c r="R46" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="S46" t="n">
+        <v>69.75</v>
+      </c>
+      <c r="T46" t="n">
+        <v>-18.7</v>
+      </c>
+      <c r="U46" t="n">
+        <v>-21.14188807235727</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1338650</v>
+      </c>
+      <c r="W46" t="n">
+        <v>261800</v>
+      </c>
+      <c r="X46" t="n">
+        <v>19448.65</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45162.54326388889</v>
+      </c>
+      <c r="B47" t="n">
+        <v>19450</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>29188</v>
+      </c>
+      <c r="E47" t="n">
+        <v>8185</v>
+      </c>
+      <c r="F47" t="n">
+        <v>38.97062324429843</v>
+      </c>
+      <c r="G47" t="n">
+        <v>152185</v>
+      </c>
+      <c r="H47" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="I47" t="n">
+        <v>114.15</v>
+      </c>
+      <c r="J47" t="n">
+        <v>19.55000000000001</v>
+      </c>
+      <c r="K47" t="n">
+        <v>20.66596194503173</v>
+      </c>
+      <c r="L47" t="n">
+        <v>124800</v>
+      </c>
+      <c r="M47" t="n">
+        <v>259000</v>
+      </c>
+      <c r="N47" t="n">
+        <v>29170</v>
+      </c>
+      <c r="O47" t="n">
+        <v>12955</v>
+      </c>
+      <c r="P47" t="n">
+        <v>79.89515880357693</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>270081</v>
+      </c>
+      <c r="R47" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="S47" t="n">
+        <v>88.95</v>
+      </c>
+      <c r="T47" t="n">
+        <v>-22.75</v>
+      </c>
+      <c r="U47" t="n">
+        <v>-20.36705461056401</v>
+      </c>
+      <c r="V47" t="n">
+        <v>132550</v>
+      </c>
+      <c r="W47" t="n">
+        <v>171250</v>
+      </c>
+      <c r="X47" t="n">
+        <v>19448.65</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45162.54326388889</v>
+      </c>
+      <c r="B48" t="n">
+        <v>19500</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>149827</v>
+      </c>
+      <c r="E48" t="n">
+        <v>74211</v>
+      </c>
+      <c r="F48" t="n">
+        <v>98.1419276343631</v>
+      </c>
+      <c r="G48" t="n">
+        <v>676844</v>
+      </c>
+      <c r="H48" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="I48" t="n">
+        <v>85.34999999999999</v>
+      </c>
+      <c r="J48" t="n">
+        <v>13.69999999999999</v>
+      </c>
+      <c r="K48" t="n">
+        <v>19.12072575017444</v>
+      </c>
+      <c r="L48" t="n">
+        <v>368350</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1083750</v>
+      </c>
+      <c r="N48" t="n">
+        <v>110397</v>
+      </c>
+      <c r="O48" t="n">
+        <v>57414</v>
+      </c>
+      <c r="P48" t="n">
+        <v>108.3630598493856</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>599198</v>
+      </c>
+      <c r="R48" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="S48" t="n">
+        <v>114.85</v>
+      </c>
+      <c r="T48" t="n">
+        <v>-23.80000000000001</v>
+      </c>
+      <c r="U48" t="n">
+        <v>-17.16552470248829</v>
+      </c>
+      <c r="V48" t="n">
+        <v>206700</v>
+      </c>
+      <c r="W48" t="n">
+        <v>199350</v>
+      </c>
+      <c r="X48" t="n">
+        <v>19448.65</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45162.54326388889</v>
+      </c>
+      <c r="B49" t="n">
+        <v>19550</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>46351</v>
+      </c>
+      <c r="E49" t="n">
+        <v>24110</v>
+      </c>
+      <c r="F49" t="n">
+        <v>108.4033991277371</v>
+      </c>
+      <c r="G49" t="n">
+        <v>305487</v>
+      </c>
+      <c r="H49" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="I49" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="J49" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K49" t="n">
+        <v>24.28842504743832</v>
+      </c>
+      <c r="L49" t="n">
+        <v>191900</v>
+      </c>
+      <c r="M49" t="n">
+        <v>397050</v>
+      </c>
+      <c r="N49" t="n">
+        <v>15261</v>
+      </c>
+      <c r="O49" t="n">
+        <v>10887</v>
+      </c>
+      <c r="P49" t="n">
+        <v>248.9026063100137</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>175010</v>
+      </c>
+      <c r="R49" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="S49" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="T49" t="n">
+        <v>-26.59999999999999</v>
+      </c>
+      <c r="U49" t="n">
+        <v>-15.7396449704142</v>
+      </c>
+      <c r="V49" t="n">
+        <v>72850</v>
+      </c>
+      <c r="W49" t="n">
+        <v>52800</v>
+      </c>
+      <c r="X49" t="n">
+        <v>19448.65</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B50" t="n">
+        <v>19300</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>25857</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-2064</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-7.392285376598259</v>
+      </c>
+      <c r="G50" t="n">
+        <v>52710</v>
+      </c>
+      <c r="H50" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="I50" t="n">
+        <v>220</v>
+      </c>
+      <c r="J50" t="n">
+        <v>33</v>
+      </c>
+      <c r="K50" t="n">
+        <v>17.64705882352941</v>
+      </c>
+      <c r="L50" t="n">
+        <v>74650</v>
+      </c>
+      <c r="M50" t="n">
+        <v>94450</v>
+      </c>
+      <c r="N50" t="n">
+        <v>78598</v>
+      </c>
+      <c r="O50" t="n">
+        <v>6246</v>
+      </c>
+      <c r="P50" t="n">
+        <v>8.632795223352499</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>312991</v>
+      </c>
+      <c r="R50" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="S50" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="T50" t="n">
+        <v>-14.9</v>
+      </c>
+      <c r="U50" t="n">
+        <v>-27.31439046746104</v>
+      </c>
+      <c r="V50" t="n">
+        <v>295150</v>
+      </c>
+      <c r="W50" t="n">
+        <v>221400</v>
+      </c>
+      <c r="X50" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B51" t="n">
+        <v>19350</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>7647</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-1164</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-13.21075927817501</v>
+      </c>
+      <c r="G51" t="n">
+        <v>31345</v>
+      </c>
+      <c r="H51" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="I51" t="n">
+        <v>182</v>
+      </c>
+      <c r="J51" t="n">
+        <v>28.90000000000001</v>
+      </c>
+      <c r="K51" t="n">
+        <v>18.87655127367734</v>
+      </c>
+      <c r="L51" t="n">
+        <v>67950</v>
+      </c>
+      <c r="M51" t="n">
+        <v>64250</v>
+      </c>
+      <c r="N51" t="n">
+        <v>21730</v>
+      </c>
+      <c r="O51" t="n">
+        <v>2863</v>
+      </c>
+      <c r="P51" t="n">
+        <v>15.17464355753432</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>147688</v>
+      </c>
+      <c r="R51" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="S51" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="T51" t="n">
+        <v>-17.74999999999999</v>
+      </c>
+      <c r="U51" t="n">
+        <v>-25.59480894015861</v>
+      </c>
+      <c r="V51" t="n">
+        <v>144300</v>
+      </c>
+      <c r="W51" t="n">
+        <v>97950</v>
+      </c>
+      <c r="X51" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B52" t="n">
+        <v>19400</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>54764</v>
+      </c>
+      <c r="E52" t="n">
+        <v>289</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.5305185865075723</v>
+      </c>
+      <c r="G52" t="n">
+        <v>190360</v>
+      </c>
+      <c r="H52" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="I52" t="n">
+        <v>146.75</v>
+      </c>
+      <c r="J52" t="n">
+        <v>25.40000000000001</v>
+      </c>
+      <c r="K52" t="n">
+        <v>20.93119077049856</v>
+      </c>
+      <c r="L52" t="n">
+        <v>170450</v>
+      </c>
+      <c r="M52" t="n">
+        <v>304900</v>
+      </c>
+      <c r="N52" t="n">
+        <v>84246</v>
+      </c>
+      <c r="O52" t="n">
+        <v>7084</v>
+      </c>
+      <c r="P52" t="n">
+        <v>9.180684793032841</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>415637</v>
+      </c>
+      <c r="R52" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="S52" t="n">
+        <v>67.15000000000001</v>
+      </c>
+      <c r="T52" t="n">
+        <v>-21.3</v>
+      </c>
+      <c r="U52" t="n">
+        <v>-24.08140192198982</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1335550</v>
+      </c>
+      <c r="W52" t="n">
+        <v>267000</v>
+      </c>
+      <c r="X52" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B53" t="n">
+        <v>19450</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>28600</v>
+      </c>
+      <c r="E53" t="n">
+        <v>7597</v>
+      </c>
+      <c r="F53" t="n">
+        <v>36.17102318716374</v>
+      </c>
+      <c r="G53" t="n">
+        <v>150706</v>
+      </c>
+      <c r="H53" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="I53" t="n">
+        <v>117.1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K53" t="n">
+        <v>23.78435517970402</v>
+      </c>
+      <c r="L53" t="n">
+        <v>140700</v>
+      </c>
+      <c r="M53" t="n">
+        <v>247900</v>
+      </c>
+      <c r="N53" t="n">
+        <v>29084</v>
+      </c>
+      <c r="O53" t="n">
+        <v>12869</v>
+      </c>
+      <c r="P53" t="n">
+        <v>79.36478569226026</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>269294</v>
+      </c>
+      <c r="R53" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="S53" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="T53" t="n">
+        <v>-25.10000000000001</v>
+      </c>
+      <c r="U53" t="n">
+        <v>-22.4709042076992</v>
+      </c>
+      <c r="V53" t="n">
+        <v>128200</v>
+      </c>
+      <c r="W53" t="n">
+        <v>174500</v>
+      </c>
+      <c r="X53" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B54" t="n">
+        <v>19500</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>147462</v>
+      </c>
+      <c r="E54" t="n">
+        <v>71846</v>
+      </c>
+      <c r="F54" t="n">
+        <v>95.01428269149386</v>
+      </c>
+      <c r="G54" t="n">
+        <v>671857</v>
+      </c>
+      <c r="H54" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="I54" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="J54" t="n">
+        <v>17.84999999999999</v>
+      </c>
+      <c r="K54" t="n">
+        <v>24.91277041172365</v>
+      </c>
+      <c r="L54" t="n">
+        <v>431000</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1055750</v>
+      </c>
+      <c r="N54" t="n">
+        <v>109004</v>
+      </c>
+      <c r="O54" t="n">
+        <v>56021</v>
+      </c>
+      <c r="P54" t="n">
+        <v>105.7339146518695</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>596565</v>
+      </c>
+      <c r="R54" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="S54" t="n">
+        <v>109.35</v>
+      </c>
+      <c r="T54" t="n">
+        <v>-29.30000000000001</v>
+      </c>
+      <c r="U54" t="n">
+        <v>-21.13234763793726</v>
+      </c>
+      <c r="V54" t="n">
+        <v>214550</v>
+      </c>
+      <c r="W54" t="n">
+        <v>220100</v>
+      </c>
+      <c r="X54" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B55" t="n">
+        <v>19550</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>45964</v>
+      </c>
+      <c r="E55" t="n">
+        <v>23723</v>
+      </c>
+      <c r="F55" t="n">
+        <v>106.6633694528124</v>
+      </c>
+      <c r="G55" t="n">
+        <v>304807</v>
+      </c>
+      <c r="H55" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="I55" t="n">
+        <v>67.05</v>
+      </c>
+      <c r="J55" t="n">
+        <v>14.34999999999999</v>
+      </c>
+      <c r="K55" t="n">
+        <v>27.22960151802655</v>
+      </c>
+      <c r="L55" t="n">
+        <v>199400</v>
+      </c>
+      <c r="M55" t="n">
+        <v>389650</v>
+      </c>
+      <c r="N55" t="n">
+        <v>15285</v>
+      </c>
+      <c r="O55" t="n">
+        <v>10911</v>
+      </c>
+      <c r="P55" t="n">
+        <v>249.4513031550069</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>174710</v>
+      </c>
+      <c r="R55" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="S55" t="n">
+        <v>136</v>
+      </c>
+      <c r="T55" t="n">
+        <v>-33</v>
+      </c>
+      <c r="U55" t="n">
+        <v>-19.52662721893491</v>
+      </c>
+      <c r="V55" t="n">
+        <v>72700</v>
+      </c>
+      <c r="W55" t="n">
+        <v>54900</v>
+      </c>
+      <c r="X55" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45162.541875</v>
+      </c>
+      <c r="B56" t="n">
+        <v>19300</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>25857</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-2064</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-7.392285376598259</v>
+      </c>
+      <c r="G56" t="n">
+        <v>52710</v>
+      </c>
+      <c r="H56" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="I56" t="n">
+        <v>220</v>
+      </c>
+      <c r="J56" t="n">
+        <v>33</v>
+      </c>
+      <c r="K56" t="n">
+        <v>17.64705882352941</v>
+      </c>
+      <c r="L56" t="n">
+        <v>74650</v>
+      </c>
+      <c r="M56" t="n">
+        <v>94450</v>
+      </c>
+      <c r="N56" t="n">
+        <v>78598</v>
+      </c>
+      <c r="O56" t="n">
+        <v>6246</v>
+      </c>
+      <c r="P56" t="n">
+        <v>8.632795223352499</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>312991</v>
+      </c>
+      <c r="R56" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="S56" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="T56" t="n">
+        <v>-14.9</v>
+      </c>
+      <c r="U56" t="n">
+        <v>-27.31439046746104</v>
+      </c>
+      <c r="V56" t="n">
+        <v>295150</v>
+      </c>
+      <c r="W56" t="n">
+        <v>221400</v>
+      </c>
+      <c r="X56" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45162.541875</v>
+      </c>
+      <c r="B57" t="n">
+        <v>19350</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>7647</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-1164</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-13.21075927817501</v>
+      </c>
+      <c r="G57" t="n">
+        <v>31345</v>
+      </c>
+      <c r="H57" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="I57" t="n">
+        <v>182</v>
+      </c>
+      <c r="J57" t="n">
+        <v>28.90000000000001</v>
+      </c>
+      <c r="K57" t="n">
+        <v>18.87655127367734</v>
+      </c>
+      <c r="L57" t="n">
+        <v>67950</v>
+      </c>
+      <c r="M57" t="n">
+        <v>64250</v>
+      </c>
+      <c r="N57" t="n">
+        <v>21730</v>
+      </c>
+      <c r="O57" t="n">
+        <v>2863</v>
+      </c>
+      <c r="P57" t="n">
+        <v>15.17464355753432</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>147688</v>
+      </c>
+      <c r="R57" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="S57" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="T57" t="n">
+        <v>-17.74999999999999</v>
+      </c>
+      <c r="U57" t="n">
+        <v>-25.59480894015861</v>
+      </c>
+      <c r="V57" t="n">
+        <v>144300</v>
+      </c>
+      <c r="W57" t="n">
+        <v>97950</v>
+      </c>
+      <c r="X57" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45162.541875</v>
+      </c>
+      <c r="B58" t="n">
+        <v>19400</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>54764</v>
+      </c>
+      <c r="E58" t="n">
+        <v>289</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.5305185865075723</v>
+      </c>
+      <c r="G58" t="n">
+        <v>190360</v>
+      </c>
+      <c r="H58" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="I58" t="n">
+        <v>146.75</v>
+      </c>
+      <c r="J58" t="n">
+        <v>25.40000000000001</v>
+      </c>
+      <c r="K58" t="n">
+        <v>20.93119077049856</v>
+      </c>
+      <c r="L58" t="n">
+        <v>170450</v>
+      </c>
+      <c r="M58" t="n">
+        <v>304900</v>
+      </c>
+      <c r="N58" t="n">
+        <v>84246</v>
+      </c>
+      <c r="O58" t="n">
+        <v>7084</v>
+      </c>
+      <c r="P58" t="n">
+        <v>9.180684793032841</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>415637</v>
+      </c>
+      <c r="R58" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="S58" t="n">
+        <v>67.15000000000001</v>
+      </c>
+      <c r="T58" t="n">
+        <v>-21.3</v>
+      </c>
+      <c r="U58" t="n">
+        <v>-24.08140192198982</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1335550</v>
+      </c>
+      <c r="W58" t="n">
+        <v>267000</v>
+      </c>
+      <c r="X58" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45162.541875</v>
+      </c>
+      <c r="B59" t="n">
+        <v>19450</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>28600</v>
+      </c>
+      <c r="E59" t="n">
+        <v>7597</v>
+      </c>
+      <c r="F59" t="n">
+        <v>36.17102318716374</v>
+      </c>
+      <c r="G59" t="n">
+        <v>150706</v>
+      </c>
+      <c r="H59" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="I59" t="n">
+        <v>117.1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>23.78435517970402</v>
+      </c>
+      <c r="L59" t="n">
+        <v>140700</v>
+      </c>
+      <c r="M59" t="n">
+        <v>247900</v>
+      </c>
+      <c r="N59" t="n">
+        <v>29084</v>
+      </c>
+      <c r="O59" t="n">
+        <v>12869</v>
+      </c>
+      <c r="P59" t="n">
+        <v>79.36478569226026</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>269294</v>
+      </c>
+      <c r="R59" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="S59" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="T59" t="n">
+        <v>-25.10000000000001</v>
+      </c>
+      <c r="U59" t="n">
+        <v>-22.4709042076992</v>
+      </c>
+      <c r="V59" t="n">
+        <v>128200</v>
+      </c>
+      <c r="W59" t="n">
+        <v>174500</v>
+      </c>
+      <c r="X59" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45162.541875</v>
+      </c>
+      <c r="B60" t="n">
+        <v>19500</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>147462</v>
+      </c>
+      <c r="E60" t="n">
+        <v>71846</v>
+      </c>
+      <c r="F60" t="n">
+        <v>95.01428269149386</v>
+      </c>
+      <c r="G60" t="n">
+        <v>671857</v>
+      </c>
+      <c r="H60" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="I60" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>17.84999999999999</v>
+      </c>
+      <c r="K60" t="n">
+        <v>24.91277041172365</v>
+      </c>
+      <c r="L60" t="n">
+        <v>431000</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1055750</v>
+      </c>
+      <c r="N60" t="n">
+        <v>109004</v>
+      </c>
+      <c r="O60" t="n">
+        <v>56021</v>
+      </c>
+      <c r="P60" t="n">
+        <v>105.7339146518695</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>596565</v>
+      </c>
+      <c r="R60" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="S60" t="n">
+        <v>109.35</v>
+      </c>
+      <c r="T60" t="n">
+        <v>-29.30000000000001</v>
+      </c>
+      <c r="U60" t="n">
+        <v>-21.13234763793726</v>
+      </c>
+      <c r="V60" t="n">
+        <v>214550</v>
+      </c>
+      <c r="W60" t="n">
+        <v>220100</v>
+      </c>
+      <c r="X60" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45162.541875</v>
+      </c>
+      <c r="B61" t="n">
+        <v>19550</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>45964</v>
+      </c>
+      <c r="E61" t="n">
+        <v>23723</v>
+      </c>
+      <c r="F61" t="n">
+        <v>106.6633694528124</v>
+      </c>
+      <c r="G61" t="n">
+        <v>304807</v>
+      </c>
+      <c r="H61" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="I61" t="n">
+        <v>67.05</v>
+      </c>
+      <c r="J61" t="n">
+        <v>14.34999999999999</v>
+      </c>
+      <c r="K61" t="n">
+        <v>27.22960151802655</v>
+      </c>
+      <c r="L61" t="n">
+        <v>199400</v>
+      </c>
+      <c r="M61" t="n">
+        <v>389650</v>
+      </c>
+      <c r="N61" t="n">
+        <v>15285</v>
+      </c>
+      <c r="O61" t="n">
+        <v>10911</v>
+      </c>
+      <c r="P61" t="n">
+        <v>249.4513031550069</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>174710</v>
+      </c>
+      <c r="R61" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="S61" t="n">
+        <v>136</v>
+      </c>
+      <c r="T61" t="n">
+        <v>-33</v>
+      </c>
+      <c r="U61" t="n">
+        <v>-19.52662721893491</v>
+      </c>
+      <c r="V61" t="n">
+        <v>72700</v>
+      </c>
+      <c r="W61" t="n">
+        <v>54900</v>
+      </c>
+      <c r="X61" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45162.54118055556</v>
+      </c>
+      <c r="B62" t="n">
+        <v>19350</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>7647</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-1164</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-13.21075927817501</v>
+      </c>
+      <c r="G62" t="n">
+        <v>30743</v>
+      </c>
+      <c r="H62" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="I62" t="n">
+        <v>182.75</v>
+      </c>
+      <c r="J62" t="n">
+        <v>29.65000000000001</v>
+      </c>
+      <c r="K62" t="n">
+        <v>19.36642717178315</v>
+      </c>
+      <c r="L62" t="n">
+        <v>66900</v>
+      </c>
+      <c r="M62" t="n">
+        <v>60500</v>
+      </c>
+      <c r="N62" t="n">
+        <v>21730</v>
+      </c>
+      <c r="O62" t="n">
+        <v>2863</v>
+      </c>
+      <c r="P62" t="n">
+        <v>15.17464355753432</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>147332</v>
+      </c>
+      <c r="R62" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="S62" t="n">
+        <v>51.45</v>
+      </c>
+      <c r="T62" t="n">
+        <v>-17.89999999999999</v>
+      </c>
+      <c r="U62" t="n">
+        <v>-25.81110310021628</v>
+      </c>
+      <c r="V62" t="n">
+        <v>140150</v>
+      </c>
+      <c r="W62" t="n">
+        <v>104000</v>
+      </c>
+      <c r="X62" t="n">
+        <v>19446.25</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45162.54118055556</v>
+      </c>
+      <c r="B63" t="n">
+        <v>19400</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>54764</v>
+      </c>
+      <c r="E63" t="n">
+        <v>289</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.5305185865075723</v>
+      </c>
+      <c r="G63" t="n">
+        <v>188751</v>
+      </c>
+      <c r="H63" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="I63" t="n">
+        <v>148.35</v>
+      </c>
+      <c r="J63" t="n">
+        <v>27</v>
+      </c>
+      <c r="K63" t="n">
+        <v>22.24969097651422</v>
+      </c>
+      <c r="L63" t="n">
+        <v>166850</v>
+      </c>
+      <c r="M63" t="n">
+        <v>298200</v>
+      </c>
+      <c r="N63" t="n">
+        <v>84246</v>
+      </c>
+      <c r="O63" t="n">
+        <v>7084</v>
+      </c>
+      <c r="P63" t="n">
+        <v>9.180684793032841</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>413198</v>
+      </c>
+      <c r="R63" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="S63" t="n">
+        <v>67.25</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-21.2</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-23.96834369700396</v>
+      </c>
+      <c r="V63" t="n">
+        <v>1334450</v>
+      </c>
+      <c r="W63" t="n">
+        <v>267250</v>
+      </c>
+      <c r="X63" t="n">
+        <v>19446.25</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45162.54118055556</v>
+      </c>
+      <c r="B64" t="n">
+        <v>19450</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>28600</v>
+      </c>
+      <c r="E64" t="n">
+        <v>7597</v>
+      </c>
+      <c r="F64" t="n">
+        <v>36.17102318716374</v>
+      </c>
+      <c r="G64" t="n">
+        <v>149194</v>
+      </c>
+      <c r="H64" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="I64" t="n">
+        <v>117.95</v>
+      </c>
+      <c r="J64" t="n">
+        <v>23.35000000000001</v>
+      </c>
+      <c r="K64" t="n">
+        <v>24.68287526427062</v>
+      </c>
+      <c r="L64" t="n">
+        <v>142350</v>
+      </c>
+      <c r="M64" t="n">
+        <v>239400</v>
+      </c>
+      <c r="N64" t="n">
+        <v>29084</v>
+      </c>
+      <c r="O64" t="n">
+        <v>12869</v>
+      </c>
+      <c r="P64" t="n">
+        <v>79.36478569226026</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>267936</v>
+      </c>
+      <c r="R64" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="S64" t="n">
+        <v>86.15000000000001</v>
+      </c>
+      <c r="T64" t="n">
+        <v>-25.55</v>
+      </c>
+      <c r="U64" t="n">
+        <v>-22.87376902417189</v>
+      </c>
+      <c r="V64" t="n">
+        <v>125450</v>
+      </c>
+      <c r="W64" t="n">
+        <v>172250</v>
+      </c>
+      <c r="X64" t="n">
+        <v>19446.25</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45162.54118055556</v>
+      </c>
+      <c r="B65" t="n">
+        <v>19500</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>147462</v>
+      </c>
+      <c r="E65" t="n">
+        <v>71846</v>
+      </c>
+      <c r="F65" t="n">
+        <v>95.01428269149386</v>
+      </c>
+      <c r="G65" t="n">
+        <v>665368</v>
+      </c>
+      <c r="H65" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="I65" t="n">
+        <v>90.34999999999999</v>
+      </c>
+      <c r="J65" t="n">
+        <v>18.69999999999999</v>
+      </c>
+      <c r="K65" t="n">
+        <v>26.09909281228191</v>
+      </c>
+      <c r="L65" t="n">
+        <v>433250</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1004100</v>
+      </c>
+      <c r="N65" t="n">
+        <v>109004</v>
+      </c>
+      <c r="O65" t="n">
+        <v>56021</v>
+      </c>
+      <c r="P65" t="n">
+        <v>105.7339146518695</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>592125</v>
+      </c>
+      <c r="R65" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="S65" t="n">
+        <v>109.85</v>
+      </c>
+      <c r="T65" t="n">
+        <v>-28.80000000000001</v>
+      </c>
+      <c r="U65" t="n">
+        <v>-20.77172737107826</v>
+      </c>
+      <c r="V65" t="n">
+        <v>203650</v>
+      </c>
+      <c r="W65" t="n">
+        <v>222200</v>
+      </c>
+      <c r="X65" t="n">
+        <v>19446.25</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45162.54118055556</v>
+      </c>
+      <c r="B66" t="n">
+        <v>19550</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>45964</v>
+      </c>
+      <c r="E66" t="n">
+        <v>23723</v>
+      </c>
+      <c r="F66" t="n">
+        <v>106.6633694528124</v>
+      </c>
+      <c r="G66" t="n">
+        <v>304030</v>
+      </c>
+      <c r="H66" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="I66" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="J66" t="n">
+        <v>15.39999999999999</v>
+      </c>
+      <c r="K66" t="n">
+        <v>29.22201138519923</v>
+      </c>
+      <c r="L66" t="n">
+        <v>203700</v>
+      </c>
+      <c r="M66" t="n">
+        <v>380250</v>
+      </c>
+      <c r="N66" t="n">
+        <v>15285</v>
+      </c>
+      <c r="O66" t="n">
+        <v>10911</v>
+      </c>
+      <c r="P66" t="n">
+        <v>249.4513031550069</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>174363</v>
+      </c>
+      <c r="R66" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="S66" t="n">
+        <v>136</v>
+      </c>
+      <c r="T66" t="n">
+        <v>-33</v>
+      </c>
+      <c r="U66" t="n">
+        <v>-19.52662721893491</v>
+      </c>
+      <c r="V66" t="n">
+        <v>71950</v>
+      </c>
+      <c r="W66" t="n">
+        <v>51900</v>
+      </c>
+      <c r="X66" t="n">
+        <v>19446.25</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45162.54118055556</v>
+      </c>
+      <c r="B67" t="n">
+        <v>19600</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
         <v>99220</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E67" t="n">
         <v>29386</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F67" t="n">
         <v>42.07978921442277</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G67" t="n">
         <v>527785</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H67" t="n">
         <v>8.970000000000001</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I67" t="n">
         <v>49.55</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J67" t="n">
         <v>12.4</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K67" t="n">
         <v>33.37819650067295</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L67" t="n">
         <v>282400</v>
       </c>
-      <c r="M37" t="n">
+      <c r="M67" t="n">
         <v>728600</v>
       </c>
-      <c r="N37" t="n">
+      <c r="N67" t="n">
         <v>28686</v>
       </c>
-      <c r="O37" t="n">
+      <c r="O67" t="n">
         <v>11439</v>
       </c>
-      <c r="P37" t="n">
+      <c r="P67" t="n">
         <v>66.32457818751087</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="Q67" t="n">
         <v>210185</v>
       </c>
-      <c r="R37" t="n">
+      <c r="R67" t="n">
         <v>9.5</v>
       </c>
-      <c r="S37" t="n">
+      <c r="S67" t="n">
         <v>168.15</v>
       </c>
-      <c r="T37" t="n">
+      <c r="T67" t="n">
         <v>-37.09999999999999</v>
       </c>
-      <c r="U37" t="n">
+      <c r="U67" t="n">
         <v>-18.07551766138855</v>
       </c>
-      <c r="V37" t="n">
+      <c r="V67" t="n">
         <v>102850</v>
       </c>
-      <c r="W37" t="n">
+      <c r="W67" t="n">
         <v>82700</v>
       </c>
-      <c r="X37" t="n">
+      <c r="X67" t="n">
         <v>19446.25</v>
       </c>
     </row>
